--- a/data/hotels_by_city/Dallas/Dallas_shard_380.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_380.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>It was a business trip on this part of town , its not like the new holiday inns Porto type but was told by staff it's in the process of doing so, Good luck . Very clean &amp; well maintained , sumptuous breakfast , efficient &amp; courteous  staff.More</t>
   </si>
   <si>
+    <t>Gloria H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r499460709-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I made a reservation yesterday (Thursday) for a one night (Friday) stay at Holiday Inn Express in Mesquite, Texas.  Unfortunately, I was not able to cancel the reservation because my cancel time was 6:00 p.m. the day I made the reservation.  I did not cancel because there was no need to cancel, but when I got up on Friday morning I had to take my husband to the hospital (emergency room) due to his heart.  I called Holiday Inn direct Friday morning and they refused to cancel.  So I will never again stay at a Holiday Inn or recommend family or friends to stay there.  If I could I would give a negative 5 star review!More</t>
   </si>
   <si>
+    <t>57Klas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r499282072-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>We had a really good night sleep at this high quality and high standard hotel. Clean and cool rooms with comfortable beds. The breakfast was far above average and the pool area is was newly renovated. Tumbs up!More</t>
   </si>
   <si>
+    <t>David A R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r473049867-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>I'm a 500k rewards member with Marriott I decided to try IHG group one more time while I was traveling to Nevada for work and once again I'm quickly reminded why I choose to avoid IHG properties the facility was sub par, the staff was non existent it took me a week to get a receipt after I wasn't asked if I'd like one upon check out, I like to accrue points with hotel chains for future stays and as per usual they screwed that up.., doesn't matter I will avoid there properties for my  future stays in the area. If your a frequent traveler or just on a quick getaway I urge you to stay in St. George it's a little further drive but well worth it.More</t>
   </si>
   <si>
+    <t>Erric D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r470430348-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>The location of the hotel is in a great location for proximity for a variety of fast food and Ihop.  There's a very beautiful field of bluebonnets growing adjacent to the hotel, however it is located too close to the freeway, LOTS of road noise and my room was on the side opposite of the freeway.  The room was substandard, definitely not what I expect of an IHG property.   The furniture was dated with various old data lines including one in the bathroom, room was VERY dusty, the AC unit was VERY loud, sounded like the motor was going out.The indoor pool stayed busy, the dining area was far too small for those wanting breakfast causing those who wanted to sit and eat to spill out into the area near the front entrance lobby.It appears that this location was once another hotel, there's a service window on your immediate right as you walk into the door.More</t>
   </si>
   <si>
+    <t>Michael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r464860961-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>First time I ever splurged on a hotel Got a room with a jaccuzi tub. The tub was really nice. But the front desk help was rude. When I got there the first day I went to use ice machine. It was not working. I called the front desk. The lady at the front desk told me if I wanted ice I would have to go to the 3rd floor and get it myself..very rude. Plus room was dusty.......never again.More</t>
   </si>
   <si>
+    <t>Charles H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r431860826-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>I stayed here on 10/23/2016. The front desk staff was very nice but the motel is older &amp; their was dust behind night stands &amp; cleaning people need to do a better job cleaning up. I would probably not recommend this motel until they clean it up. There was cob webs coming out of vents in hall way next to elevators. The price was good &amp; they had plenty of well lighted parking. More</t>
   </si>
   <si>
+    <t>Tsimoneaux2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r423926047-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>We arrived very late at night without reservations. The guy behind the desk had us a room and checked us in super quick. We were exhausted and just wanted a place to sleep. I was worried the room would be hot because we had bad experiences with that before. Thank goodness the room was nice and cold! The beds were very comfortable. And the room was very clean! The only negative is that the hotel is close to the interstate so there is some noise. The free breakfast was good and we checked out very quickly. I would recommend this hotel to family and friends. More</t>
   </si>
   <si>
+    <t>c b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r419986672-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>We loved our stay the the whirlpool suite. The room was huge and included a wet bar, dining area, couch, chair, desk, TV, and spa tub. The king bed was tucked away in a separate bedroom with another TV. The room had a private balcony with a table and chairs. Everything was spotless, the staff was friendly and helpful.</t>
   </si>
   <si>
+    <t>jennc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r393378383-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Stayed as a quest of my sister and her friend (friend made reservation). I am a platinum member. So I've stayed in a few IHG's. This was the worst. Looks old, dirty and run down. A/C noisy and left the room, carpet and bed damp. The sofas in the lobby look shabby and dirty. The reception area is small, crowded and dreary looking. On our comings and goings front desk does not acknowledge anyone that I can see. I'm writing this on my first evening, so I can't yet comment on breakfast. But I'm not expecting for it to change my opinion or review. More</t>
   </si>
   <si>
+    <t>littlejnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r387408362-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Not bad for the price. Location and price were key factors in choosing this hotel. Not the best I've stayed in, but not so bad I wouldn't return.  3rd floor hallways had a definite cigarette and musty smell, but the room did not. Staff was friendly and helpful, room was clean and quiet, breakfast was nice and coffee was good. More</t>
   </si>
   <si>
+    <t>Ethan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r375205417-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -498,6 +534,9 @@
     <t>1. I was misinformed about the room. 2. The sleeper sofa was dirty. 3. The sleeper sofa was broken4. The bathroom door would not close. 5. Management said they would get us a room 1st thing in the morning  (7/8) O'clock didn't get the room until afternoon.More</t>
   </si>
   <si>
+    <t>Ingmar53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r348613307-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -525,6 +564,9 @@
     <t>This was the second stop on our cross-country move to California, and we mostly stayed at mid-level hotels just off the interstate during the drive. We initially tried the Hampton Inn nearby, which had no vacancies, and we got the last room available here--actually a king suite.  Service was fine, although the single elevator often saw quite a crowd waiting for it during our one-night stay. Had a bunch of kids not been monopolizing the indoor pool just off the lobby, we might have tried it. The bed was comfortable, but the sad sofa that made this a "suite" was badly worn and so sagging in the middle that we couldn't comfortably sit there to watch TV. The bathroom, too, is due for a renovation, and with the sink outside the bathroom, it is awfully small to comfortably use the toilet or take a bath. The bath was also missing shampoo, with double hand-lotion instead, which was actually a nuisance for us. Being adjacent to the interstate, there was also lots of outside traffic noise wafting into the room. Free breakfast the next morning was fine, and better than what we experienced at other stops on our westward drive.More</t>
   </si>
   <si>
+    <t>Arnell H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r330822359-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -552,6 +594,9 @@
     <t>Good location off 635 highway. Not far from breakfast food sites. Housekeeping poor. Room was not cleaned until after 3 pm.  Coffee maker not cleaned out first night. Above average breakfast. Outdoor free parking. 4th floor room. Indoor pool available. Small lobby area. But it was very convenient for our purposes.More</t>
   </si>
   <si>
+    <t>Tina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r274315580-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -576,6 +621,9 @@
     <t>Yuck!!!!!! Yuck!!!!! Yuck!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!SmellsDrains were clogged. And smells really bad.   Felt dirty.     We would not stay there again. The pool is closed.More</t>
   </si>
   <si>
+    <t>rbjpk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r266463733-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -603,6 +651,9 @@
     <t>Clean rooms, good breakfast, but noisy location on I20. No pets at this location. A bit overpriced for the area. Difficult access off the highway. Busy night with a lot of traffic because of a youth sporting competition in area.More</t>
   </si>
   <si>
+    <t>victorian5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r266149090-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -618,6 +669,9 @@
     <t>Stayed on 3rd floor, could hear everything from the floor above, very noisy.  Only consider staying here if you can be on the top floor.  Bed is OK but have had better.  Double sheeting is nice to have.  Breakfast is OK but once again nothing great.Only plastic glasses, not great for a glass of wine.  The coffee is terrible, colored water only.  All together not great value even at 75 on Expedia.Will not stay at Holiday inn express again as it is far too noisy and uncomfortable.</t>
   </si>
   <si>
+    <t>Jen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r264908108-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -636,6 +690,9 @@
     <t>This isn't a pretty place, or a pretty location, but it's convenient.  The lobby is an old-style with a narrow, outdated lobby.  Since we were only there for one quick overnight, it was adequate for our needs....and since it was the HIE in the area that had Rewards nights at 10,000 points, I didn't expect it to be the best.  I will say that the lady working the front desk, Jennifer, was VERY friendly and helpful.  She upgraded our room, so that we had a pull out sofa bed, which made our stay much easier.  There were no carts available in the lobby, so she had another staff member help us locate one on another floor.More</t>
   </si>
   <si>
+    <t>J Man T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r260098213-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -666,6 +723,9 @@
     <t>The rooms were nice and clean enough, however staying on the 5th floor we did notice some highway noise, almost as if the window is not shut. The hot water ran out several times but this was during a paintball tournament as everyone was coming back for that. If you are a light sleeper this hotel may not be for you.More</t>
   </si>
   <si>
+    <t>derell4567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r241662349-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -693,6 +753,9 @@
     <t>This is the worst holiday Inn express I have either seen in my life I will never come here agian the rooms suck I'm serious, the bed is like sleeping on brick it smells it's nasty not enough luggage carriers staff are okay elevator is small floors are Un even More</t>
   </si>
   <si>
+    <t>kscott14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r240596183-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -711,6 +774,9 @@
     <t>The room was small and there were ants everywhere which then got into our suitcase when i initailly reserved the room i told them we would need a late check out and was told it was noted that we would be there until  3pm when we checked in there was no note on the account so we told the desk clerk to please add it she said she would the next morning at 11am i attempted to get into the room and was locked out when i talked to the new clerk she said it wasnt on the account and we could only stay until 1pm because she wouldn't have any housekeepers after 2pm so we were very upset with the lack of communication and the poor customer service we will never go there again!More</t>
   </si>
   <si>
+    <t>TheHalmstad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r240465108-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -732,6 +798,9 @@
     <t>the furniture was damaged but servicable. The internet was sub standard, very very slow.  other than that, it was pretty good. in the time i was here two vehicles got broken into. including on or our trucks. (toolbox)  I have stayed in a lot worse places but have stayed in way better Holiday inn expressesMore</t>
   </si>
   <si>
+    <t>lanileia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r233195284-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -756,6 +825,9 @@
     <t>I normally stay at holiday inns when I travel however this one hotel was absolutely disgusting. The shower curtains were stained the bedsheets did not look like they had been cleaned. I told my daughter not to take off her shoes because the floors had stains and we're just nasty. I understand the hotel may be old but the rooms could at least be cleaned better. I did forget something at this hotel which was my fault but I called and was told I'd get a call from the manager and never got a call. I will never be staying at this location again.More</t>
   </si>
   <si>
+    <t>PvilleTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r232465821-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -780,6 +852,9 @@
     <t>Stayed for one night while kids showing poultry at the State Fair of Texas. Was only about 15 minutes from fairgrounds so that was a plus.   The room was clean and the TV was great. It had plenty if channels. The elevator is slow and the decor a little dated. The staff was very friendly.  Several places close by to eat. The road noise from the freeway was not too bad. Recommend the hotel if in the area.More</t>
   </si>
   <si>
+    <t>safetyman79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r174803791-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -807,6 +882,9 @@
     <t>Hotel was clean and the staff was friendly but the furnishings and linens were old and out of date.  in order to find a nice place to eat you have to get back on 635 and travel to another location...nothing close to the hotel.  Over all not a bad place but I will be checking out other hotels in the area next time I am there.More</t>
   </si>
   <si>
+    <t>Ane07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r164934198-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -834,6 +912,9 @@
     <t>We stayed at this hotel recently. We had attended a concert at Fair Park about 10 miles away. It was easy to get to the fairgrounds and back.The room was a King Suite. The room was clean and the bed was comfortable. The bathroom door could not be opened all the way open because it hit the commode. Which was a little inconvenient. After we came back from the concert around midnight we noticed ants all over the cabinets and around the sink in the small kitchen area. There was no battery in the smoke detector which leads me to think the last person in that room was smoking and took the battery out.  We told the gentleman at the desk when we checked out and he said oh ok. Not very concerned about the problems. We will probably not stay at this hotel again. And the sheets on the bed looked and felt a little worn.More</t>
   </si>
   <si>
+    <t>Laura B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r163927494-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -858,6 +939,9 @@
     <t>We stayed at the Holiday Inn Express on 6/12/13. We were tired and the wind was blowing and it was very hot as we arrived. They had a very nice person at the front desk, which made the check in nice. I had requested extra pillows on the computer and they were there for me. The room was clean, the bedding was nice and comfortable. They have the extra plug on the base of the lamp for charging my phone,nice. The breakfast was good, sometimes you never can tell what your eating. We will most certainly stay again.More</t>
   </si>
   <si>
+    <t>Wdude99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r161062233-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -882,6 +966,9 @@
     <t>This hotel is located right off of Highway 635 , yet the rooms were surprisingly quiet. We did not hear any highway noise ! Pros: clean, really comfortable beds , microwave and mini fridge in room, free continental breakfast , friendly staff, large parking lot ( was able to park truck with trailer and boat) , close to several fast food options, and the mesquite rodeo arena.Cons: we booked through Expedia for $99 and when we arrived the front desk agent suggested we go directly through the hotel next time because the current rate was actually only $79 . Too bad the deal was non refundable : ( .My only other complaint is that the exhaust fan in the bathroom didn't seem to be working so moisture built up a bit in the bathroom.  We would definitely stay again!More</t>
   </si>
   <si>
+    <t>Cheri H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r161025323-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -903,6 +990,9 @@
     <t>When I checked into this Hotel for my business trip, I thought it was a convenient location and a good value.  First I noticed the pillows on the bed were old and lumpy.  The phone in next to my bed did not work.  The water would not come out through the shower head only the faucet.  My television had poor reception but the final blow was my second night, the small kitchen area was covered in thousands of little tiny bugs, I was horrified.  I contacted the night manager, he said would you like me to send up the maintenance man?  I said I want another room.  The maintenance man show up with another key for a different room and beginning squashing the bugs with his fingers!!!  I changed rooms, in the morning I was shocked that the night manager never reported the bug problem to the day manager.  They were about to rent out the "bug room" to another poor person.  Stay away from this Hotel, it is not a "value" at any price.More</t>
   </si>
   <si>
+    <t>EnjoyTravelAlways</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r157497268-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1020,9 @@
     <t>I booked a room here mostly because I would be on the east side of the area and be able to get an early start with less traffic.  I had a very nice upgrade because I am a Platinum member.  Like some rooms I’ve stayed in with a hot tub, the room had an odor to it because of water in the carpet (leaky plumbing not overflow or drips when coming out of the tub).  It wasn’t bad but not a surprise.  The tub itself would not be worth paying extra because the jet action was uneventful.  Still, it was good relaxing in a massive tub!  The housekeeping staff could certainly give more attention to easy fixes.  On the floor there was plastic confetti from someone’s celebration.  An attentive sweeping of the room would have gotten all of the pieces.  The bath was mostly clean but the underside of the lid and seat were not cleaned properly and there were disgusting spots.  I know I should have complained and gotten a new room but discovered the filth on the toilet at 11:30 p.m. on my way to bed exhausted.  The location is nice and the people are nice but the housekeeping staff needs to give absolute attention to cleanliness!More</t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r151923208-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1050,9 @@
     <t>The good: no noise from other rooms. Breakfast had every item available and the dining area was clean. Polite staff, speedy check-in. Everything in working order. Decent parking. Close to many restaurants. The bad: This hotel has smoking rooms available. The hallways smelled bad because of that. The pool is very small and shallow - had way too much chlorine. Otherwise the pool area was clean and in good repair. We had a king with hide-away sofa (room 207). The hide-away mattress was filthy. My son (who is normally not observant) immediately asked if someone had died on it. The beds are uber hard. There is a lot of road noise but if you turn the fan on "continuous" it is tolerable. We paid about 104\night. I would be reluctant to pay more than that unless it was totally non-smoking.More</t>
   </si>
   <si>
+    <t>Luv2Travel1902</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r151429537-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1077,9 @@
     <t>My husband and I were truly disappointed in this Holiday Inn Express.  First off let me say that it is too close to freeway and you absolutely do hear the road noise. So if this is something that would bother you please think about it before booking.  Check in was fine.  Could have been a little friendlier but ok.  Got off the very small elevator and the minute the door opened up the whole second floor wreaked of cigarette smell.  I am allergic to cigarette smoke so this didn't help at all.  I believe most or all of the door plaques had No Smoking noted on them also.  We reserved the jacuzzi suite, but we were disappointed in it because we only get some swirling water, no serious bubbles going on like we had expected and paid extra for.  Got into the bed and noticed a small hole in the sheets and then noticed that the top sheet had a hole about the size of a quarter in it.  I have to admit that these things are not the normal for most of the Holiday Inn Express &amp; Suites that we have stayed in.  Oh and the bed was really uncomfortable.  We both woke up with backaches the next morning.  This place could truly use a facelift folks.  Would we stay here again?  No.More</t>
   </si>
   <si>
+    <t>haystrapps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r149861355-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1107,9 @@
     <t>We stayed here with a group of people on a bus tour.  The room was comfy and breakfast was good.  There is an ambulance station or fire station nearby so you really hear their sirens when they go out.  Restaurants nearby but not next door.More</t>
   </si>
   <si>
+    <t>Barry and Kris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r142781775-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1128,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>kimberlynm62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r103079088-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1149,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>Mj1563</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r99066690-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1167,9 @@
     <t>This is a filthy nasty motel!!!  Don't come here to rest!!  Loud music all day and kids stomping on the flour above you.. The phone don't work so I have to walk down to the dedt just to complain..</t>
   </si>
   <si>
+    <t>Persnickety_Coots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r87822065-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1186,9 @@
   </si>
   <si>
     <t>November 2010</t>
+  </si>
+  <si>
+    <t>yankeetexan65</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r78960995-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1104,6 +1218,9 @@
 I've stayed at Holiday Inn Express's for a number of years and have always had a good experience with...I live in the area but needed a 'get away' for the holiday weekend Plus I wanted to use their high speed wireless internet access. The wonderful staff tried to get me connected online after getting me connected to their wireless router. NOTHING worked. I then called the manufacturer of my laptop and they couldn't solve the issue. Finally Saturday morning I walked my laptop up to the front desk and as luck would have it their tech guy was there. He had me up &amp; running in less than 45 seconds. First time I've ever use a laptop, this was a birthday gift from me to me, so I needed help. Found out that my new laptop's security setting was set to high for wireless public access. Once he lowered my security setting I was up and running. Good thing I planned on staying the whole weekend because it took that whole time to restore everything and back everything up on the laptop. Wonderful breakfasts and M-F they have FREE beer, sodas and wine. At the end of Friday I was ready for a nice cold one but didn't. I did snag a couple of soda's though.Everyone at the front desk went over &amp; beyond their duties to help me and not sure some other place would do that. I've stayed at Holiday Inn Express's for a number of years and have always had a good experience with them. Some have more amenities than others &amp; this one had swimming pool w/spa plus laundromat. A bunch of young kids were in the pool running around unsupervised but since I wasn't going to go in swimming I didn't care. The laundry room's equipment had signs on them that they were out of order &amp; a pile of damp towels were left there. Not sure if the hotel staff was even aware of that mess.I would stay there again if I needed to stay in a local motel.Only thing about the bed was that it was a 'standard' king size bed and not a pillow top like most HIExpress has.More</t>
   </si>
   <si>
+    <t>pswinde</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r35451479-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1242,9 @@
     <t>My family and I recently stated at this Hotel for 2 weeks.  We live in Dallas.  Our A/C unit was hit by lightening and we had to leave our home, due to the hot Temperatures in June/July.  We were in need to find something quick and still close by the house.  We checked in and completely enjoyed our 2 week stay.  They have an indoor pool/jacuzzi that my daughter just love... We miss brfst as we had to go to work before bkfst was served.  We did enjoy the MANAGER RECEPITON.  I would recommend this Hotel to anyone.... We didn't have not 1 problem... The staff was EXCELLENT!!!  I was not expecting this from "Holiday Inn".More</t>
   </si>
   <si>
+    <t>chickmusician</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r10261997-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1266,9 @@
     <t>My family wanted to visit the Texas State Fair in nearby Dallas so we booked what we thought (and were led to believe on the telephone) was a two bedroom suite.  Online it showed a good rate, something that wasn't too expensive but seemed pricey enough that the suite would be nice.  When we arrived and got up to our suite it was a standard room with two double beds.  I called down to the front desk only to be told it was a suite and to look for a door on my left, there was a door but it seemed like one of those doors that connects rooms when you request that.  When I opened it I found a tiny (and I mean tiny) cramped room that couldn't even fit the loveseat, chair, coffee table and side table stuffed in it comfortably.  It was so awkward we had to take the coffee table out of the room completely!  It wasn't a two bedroom suite, it was a two ROOM suite.  Totally not worth what I paid.  The bedroom itself was average but do not be fooled into booking a suite.  The breakfast was a little sad too.  As far as an average hotel goes this one is fine, but don't expect anything over average.More</t>
   </si>
   <si>
+    <t>ccdiamondqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r7348095-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1300,9 @@
   </si>
   <si>
     <t>The worst experience at an Express Hotel. Pool area was filthy with scum around both spa and pool. We took photos. Too much clorine in spa ruined swimsuit! We were unable to enjoy the heated pool due to 10 children under the age of 10 using the hotel for a slumber party. We spoke to one parent watching children and management on duty. Management did nothing to help. Was awakened at 1:30 in the morning by individual going from door to door knocking on doors. Called desk as we were scared to go to door. I was refunded the room costs, but had to contact the Holiday Inn main phone, hotel did nothing without push from corporate. Will not ever use them again.More</t>
+  </si>
+  <si>
+    <t>KIRAN J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r1343933-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1711,43 +1837,47 @@
       <c r="A2" t="n">
         <v>44278</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1759,56 +1889,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44278</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1820,56 +1954,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44278</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>156018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1881,56 +2019,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44278</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1942,56 +2084,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44278</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2009,56 +2155,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44278</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>8101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2074,56 +2224,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44278</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2135,56 +2289,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44278</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>26615</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2196,56 +2354,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44278</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156021</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2259,50 +2421,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44278</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2314,56 +2480,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44278</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156023</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2375,56 +2545,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44278</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>99703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2442,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -2461,37 +2635,37 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2503,56 +2677,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44278</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>115906</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2570,56 +2748,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44278</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156024</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2631,47 +2813,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44278</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>19801</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2688,56 +2874,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44278</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156025</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2755,56 +2945,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44278</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2818,50 +3012,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44278</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>52474</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2879,56 +3077,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44278</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156027</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2944,56 +3146,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44278</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156028</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3005,47 +3211,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44278</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156029</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -3072,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44278</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156030</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3139,47 +3353,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44278</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156031</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
@@ -3206,47 +3424,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44278</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156032</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -3263,56 +3485,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>44278</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156033</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3334,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>44278</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156034</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3405,56 +3635,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>44278</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3476,47 +3710,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>44278</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156035</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3543,56 +3781,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>44278</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>22080</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3614,56 +3856,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="X31" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>44278</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>20272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3685,56 +3931,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>44278</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3756,56 +4006,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X33" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y33" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>44278</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156036</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3827,56 +4081,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>44278</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156037</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3896,56 +4154,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>44278</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156038</v>
+      </c>
+      <c r="C36" t="s">
+        <v>363</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3969,50 +4231,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>44278</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156039</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4036,41 +4302,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>44278</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156040</v>
+      </c>
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -4099,50 +4369,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>44278</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156041</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4166,50 +4440,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>44278</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156042</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O40" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4233,50 +4511,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>44278</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156043</v>
+      </c>
+      <c r="C41" t="s">
+        <v>398</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4300,50 +4582,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>44278</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156044</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4367,41 +4653,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>44278</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156045</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4430,41 +4720,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>44278</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -4483,41 +4777,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44278</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156046</v>
+      </c>
+      <c r="C45" t="s">
+        <v>426</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="K45" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4536,41 +4834,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44278</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4597,7 +4899,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_380.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_380.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="687">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,227 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r609039840-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>223646</t>
+  </si>
+  <si>
+    <t>609039840</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Ok not great</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights. Staff very friendly and accommodating. Pool is awesome for a hotel like this. Lobby very nice. Everything else is in need of an upgrade. Showing lots of wear and tear. Just ok.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r602771694-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>602771694</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Short Trip</t>
+  </si>
+  <si>
+    <t>I was there for a family gathering over the weekend &amp; has been here at the same hotel couple of years back . I was unable to recognize the hotel initially so had to check my GPS &amp; make sure I was at the right location :) What  a big changeover all over. Job well done .MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... M, Front Office Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I was there for a family gathering over the weekend &amp; has been here at the same hotel couple of years back . I was unable to recognize the hotel initially so had to check my GPS &amp; make sure I was at the right location :) What  a big changeover all over. Job well done .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r592824258-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>592824258</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Undergoing construction</t>
+  </si>
+  <si>
+    <t>A great simple room with all amenities one would expect. A few issues, do not know if due to it being new or reconstruction. A storage bin for the construction crew in front of building. Lobby has drywall and construction curtains. ROOM: TV guide provided not accurate. TV appeared to be on airwaves, not cable; HLN news on 43-3; I never see the dash on TV stations except for on air waves. Air conditioning did not appear to work, assigned another room, that one not working either. Finally informed by front desk A/C is controlled on wall switch, not on the unit itself. A simple note there, "control unit by wall switch" would help. When tried to phone front desk initially found the room phone on desk did not hook up to anything, and no plug for it under desk. Hooked it up into the bathroom phone plug, and it worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>A great simple room with all amenities one would expect. A few issues, do not know if due to it being new or reconstruction. A storage bin for the construction crew in front of building. Lobby has drywall and construction curtains. ROOM: TV guide provided not accurate. TV appeared to be on airwaves, not cable; HLN news on 43-3; I never see the dash on TV stations except for on air waves. Air conditioning did not appear to work, assigned another room, that one not working either. Finally informed by front desk A/C is controlled on wall switch, not on the unit itself. A simple note there, "control unit by wall switch" would help. When tried to phone front desk initially found the room phone on desk did not hook up to anything, and no plug for it under desk. Hooked it up into the bathroom phone plug, and it worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r586168113-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>586168113</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Stay elsewhere! Construction, drywall dust, workers, no gym and breakfast in a closet. Full price and no warning!</t>
+  </si>
+  <si>
+    <t>When I asked why we were not warned when we called the hotel and booked the room, the desk clerk/manager had the nerve to say that it is posted on their website. I have been to three websites featuring this very location and all have the complete list of amenities and none are marked closed. It looks as though construction will last most of the summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... M, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>When I asked why we were not warned when we called the hotel and booked the room, the desk clerk/manager had the nerve to say that it is posted on their website. I have been to three websites featuring this very location and all have the complete list of amenities and none are marked closed. It looks as though construction will last most of the summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r577445033-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>577445033</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Very BAD customer Service, no parking and messy lobby</t>
+  </si>
+  <si>
+    <t>We generally try to stay at Holiday Inn Hotels.  We are usually very happy at them.  Sadly this was a HORRIBLE experience.  
+We got in late from the airport...probably close to 10PM from traveling all day.  We arrive and there is no parking.  People are parking in areas that are clearly not parking spots because there is ZERO parking.  We got lucky after about 10 minutes someone pulled out and we grabbed the spot.  We were then surprised to hear the reservation I had made for two rooms was not available since they were unable to get ahold of me (I WAS ON AN AIRPLANE) to verify my visa number.  The phone number they had on the reservation was not my phone number.  Since it was the wrong number they gave our rooms away.  Shocking.  (If they had pulled up our Holiday Inn points account they must have seen our correct phone number.)  To make it worse they man at the counter was irritated when we showed him our printed reservations.  He could care less and told us there are other hotels around, then ignored us and went to help other people sitting around the "lobby".   He clearly wanted us to leave the lobby so he could talk with other people.   Not the typical level of service we have come to expect from Holiday Inn.  We did find another hotel in town with awesome service, cleaner lobby, and lots of...We generally try to stay at Holiday Inn Hotels.  We are usually very happy at them.  Sadly this was a HORRIBLE experience.  We got in late from the airport...probably close to 10PM from traveling all day.  We arrive and there is no parking.  People are parking in areas that are clearly not parking spots because there is ZERO parking.  We got lucky after about 10 minutes someone pulled out and we grabbed the spot.  We were then surprised to hear the reservation I had made for two rooms was not available since they were unable to get ahold of me (I WAS ON AN AIRPLANE) to verify my visa number.  The phone number they had on the reservation was not my phone number.  Since it was the wrong number they gave our rooms away.  Shocking.  (If they had pulled up our Holiday Inn points account they must have seen our correct phone number.)  To make it worse they man at the counter was irritated when we showed him our printed reservations.  He could care less and told us there are other hotels around, then ignored us and went to help other people sitting around the "lobby".   He clearly wanted us to leave the lobby so he could talk with other people.   Not the typical level of service we have come to expect from Holiday Inn.  We did find another hotel in town with awesome service, cleaner lobby, and lots of parking.  We were very happy in the end that we did not have to stay at the Holiday Inn Mesquite.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>We generally try to stay at Holiday Inn Hotels.  We are usually very happy at them.  Sadly this was a HORRIBLE experience.  
+We got in late from the airport...probably close to 10PM from traveling all day.  We arrive and there is no parking.  People are parking in areas that are clearly not parking spots because there is ZERO parking.  We got lucky after about 10 minutes someone pulled out and we grabbed the spot.  We were then surprised to hear the reservation I had made for two rooms was not available since they were unable to get ahold of me (I WAS ON AN AIRPLANE) to verify my visa number.  The phone number they had on the reservation was not my phone number.  Since it was the wrong number they gave our rooms away.  Shocking.  (If they had pulled up our Holiday Inn points account they must have seen our correct phone number.)  To make it worse they man at the counter was irritated when we showed him our printed reservations.  He could care less and told us there are other hotels around, then ignored us and went to help other people sitting around the "lobby".   He clearly wanted us to leave the lobby so he could talk with other people.   Not the typical level of service we have come to expect from Holiday Inn.  We did find another hotel in town with awesome service, cleaner lobby, and lots of...We generally try to stay at Holiday Inn Hotels.  We are usually very happy at them.  Sadly this was a HORRIBLE experience.  We got in late from the airport...probably close to 10PM from traveling all day.  We arrive and there is no parking.  People are parking in areas that are clearly not parking spots because there is ZERO parking.  We got lucky after about 10 minutes someone pulled out and we grabbed the spot.  We were then surprised to hear the reservation I had made for two rooms was not available since they were unable to get ahold of me (I WAS ON AN AIRPLANE) to verify my visa number.  The phone number they had on the reservation was not my phone number.  Since it was the wrong number they gave our rooms away.  Shocking.  (If they had pulled up our Holiday Inn points account they must have seen our correct phone number.)  To make it worse they man at the counter was irritated when we showed him our printed reservations.  He could care less and told us there are other hotels around, then ignored us and went to help other people sitting around the "lobby".   He clearly wanted us to leave the lobby so he could talk with other people.   Not the typical level of service we have come to expect from Holiday Inn.  We did find another hotel in town with awesome service, cleaner lobby, and lots of parking.  We were very happy in the end that we did not have to stay at the Holiday Inn Mesquite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r548921217-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>548921217</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great room and excellent service </t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express was a great place to stay in Mesquite. While not close to the main casinos, the location was close to the road and had great access.  The desk clerk was very good at giving suggestions about local businesses. We had a great referral to a car wash place, and also to a nearby restaurant. The room was clean and spacious. The amenities were top notch. Highly recommend this hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... M, Online Management at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express was a great place to stay in Mesquite. While not close to the main casinos, the location was close to the road and had great access.  The desk clerk was very good at giving suggestions about local businesses. We had a great referral to a car wash place, and also to a nearby restaurant. The room was clean and spacious. The amenities were top notch. Highly recommend this hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r528450991-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>528450991</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No towels and no parking.  </t>
+  </si>
+  <si>
+    <t>Arrived with my family at 10pm and there were no parking spaces left.  People were parked everywhere humanly possible.   Got to the room and it only had two towel sets for my family.   Requested some additional towels but was told they had none by the front clerk.   What hell Is that?&amp;@#%.  The hotel is ruin down, although they appear to be making renovations.  Not certain since all the work is on the outside.    Could just be a rebuild of the front canopy only.   I do not recommend this hotel.   The hotel staff are no help. Just here for the paycheck with no customer focus.   Very disappointing.     MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded October 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2017</t>
+  </si>
+  <si>
+    <t>Arrived with my family at 10pm and there were no parking spaces left.  People were parked everywhere humanly possible.   Got to the room and it only had two towel sets for my family.   Requested some additional towels but was told they had none by the front clerk.   What hell Is that?&amp;@#%.  The hotel is ruin down, although they appear to be making renovations.  Not certain since all the work is on the outside.    Could just be a rebuild of the front canopy only.   I do not recommend this hotel.   The hotel staff are no help. Just here for the paycheck with no customer focus.   Very disappointing.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r509740417-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>509740417</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Poor quality for the price</t>
+  </si>
+  <si>
+    <t>This hotel is deceiving from the exterior. We drove up to find a well-maintained property and parking lot. The interior seemed darker than expected, and the floors not well kept. However, the staff was gracious and helpful. When we walked off the elevator to go to our room, we noticed the poorly kept hallway carpet. I would be willing to bet it has not been cleaned in years. Vacuumed, yes!  But not cleaned. Our room was more of the same. There were baseboards not attached to the wall, cheap counter tops in the “suite” living room area. Honestly, we both felt dirty the entire time we were in this hotel.  EVERY hotel needs to be clean, which this one is not. The air conditioner made a horrible noise every time it started. If we hadn’t been in a bind and needed a place to stay, we would have requested a refund and left immediately. This is NOT a hotel I would ever consider again. Not only was it dated, but also does not live up to the Holiday Inn standards, as I know them. It was not worth the $107 I paid. Maybe $60 at the most.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Esperanto D, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is deceiving from the exterior. We drove up to find a well-maintained property and parking lot. The interior seemed darker than expected, and the floors not well kept. However, the staff was gracious and helpful. When we walked off the elevator to go to our room, we noticed the poorly kept hallway carpet. I would be willing to bet it has not been cleaned in years. Vacuumed, yes!  But not cleaned. Our room was more of the same. There were baseboards not attached to the wall, cheap counter tops in the “suite” living room area. Honestly, we both felt dirty the entire time we were in this hotel.  EVERY hotel needs to be clean, which this one is not. The air conditioner made a horrible noise every time it started. If we hadn’t been in a bind and needed a place to stay, we would have requested a refund and left immediately. This is NOT a hotel I would ever consider again. Not only was it dated, but also does not live up to the Holiday Inn standards, as I know them. It was not worth the $107 I paid. Maybe $60 at the most.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r499665846-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
-    <t>56280</t>
-  </si>
-  <si>
-    <t>223646</t>
-  </si>
-  <si>
     <t>499665846</t>
   </si>
   <si>
@@ -180,9 +386,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Esperanto D, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded August 5, 2017</t>
   </si>
   <si>
@@ -192,9 +395,6 @@
     <t>It was a business trip on this part of town , its not like the new holiday inns Porto type but was told by staff it's in the process of doing so, Good luck . Very clean &amp; well maintained , sumptuous breakfast , efficient &amp; courteous  staff.More</t>
   </si>
   <si>
-    <t>Gloria H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r499460709-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -210,9 +410,6 @@
     <t>I made a reservation yesterday (Thursday) for a one night (Friday) stay at Holiday Inn Express in Mesquite, Texas.  Unfortunately, I was not able to cancel the reservation because my cancel time was 6:00 p.m. the day I made the reservation.  I did not cancel because there was no need to cancel, but when I got up on Friday morning I had to take my husband to the hospital (emergency room) due to his heart.  I called Holiday Inn direct Friday morning and they refused to cancel.  So I will never again stay at a Holiday Inn or recommend family or friends to stay there.  If I could I would give a negative 5 star review!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded July 21, 2017</t>
   </si>
   <si>
@@ -222,9 +419,6 @@
     <t>I made a reservation yesterday (Thursday) for a one night (Friday) stay at Holiday Inn Express in Mesquite, Texas.  Unfortunately, I was not able to cancel the reservation because my cancel time was 6:00 p.m. the day I made the reservation.  I did not cancel because there was no need to cancel, but when I got up on Friday morning I had to take my husband to the hospital (emergency room) due to his heart.  I called Holiday Inn direct Friday morning and they refused to cancel.  So I will never again stay at a Holiday Inn or recommend family or friends to stay there.  If I could I would give a negative 5 star review!More</t>
   </si>
   <si>
-    <t>57Klas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r499282072-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -243,18 +437,12 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Esperanto D, Public Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded August 5, 2017</t>
   </si>
   <si>
     <t>We had a really good night sleep at this high quality and high standard hotel. Clean and cool rooms with comfortable beds. The breakfast was far above average and the pool area is was newly renovated. Tumbs up!More</t>
   </si>
   <si>
-    <t>David A R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r473049867-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -282,9 +470,6 @@
     <t>I'm a 500k rewards member with Marriott I decided to try IHG group one more time while I was traveling to Nevada for work and once again I'm quickly reminded why I choose to avoid IHG properties the facility was sub par, the staff was non existent it took me a week to get a receipt after I wasn't asked if I'd like one upon check out, I like to accrue points with hotel chains for future stays and as per usual they screwed that up.., doesn't matter I will avoid there properties for my  future stays in the area. If your a frequent traveler or just on a quick getaway I urge you to stay in St. George it's a little further drive but well worth it.More</t>
   </si>
   <si>
-    <t>Erric D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r470430348-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -312,9 +497,6 @@
     <t>The location of the hotel is in a great location for proximity for a variety of fast food and Ihop.  There's a very beautiful field of bluebonnets growing adjacent to the hotel, however it is located too close to the freeway, LOTS of road noise and my room was on the side opposite of the freeway.  The room was substandard, definitely not what I expect of an IHG property.   The furniture was dated with various old data lines including one in the bathroom, room was VERY dusty, the AC unit was VERY loud, sounded like the motor was going out.The indoor pool stayed busy, the dining area was far too small for those wanting breakfast causing those who wanted to sit and eat to spill out into the area near the front entrance lobby.It appears that this location was once another hotel, there's a service window on your immediate right as you walk into the door.More</t>
   </si>
   <si>
-    <t>Michael E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r464860961-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -345,9 +527,6 @@
     <t>First time I ever splurged on a hotel Got a room with a jaccuzi tub. The tub was really nice. But the front desk help was rude. When I got there the first day I went to use ice machine. It was not working. I called the front desk. The lady at the front desk told me if I wanted ice I would have to go to the 3rd floor and get it myself..very rude. Plus room was dusty.......never again.More</t>
   </si>
   <si>
-    <t>Charles H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r431860826-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -375,9 +554,6 @@
     <t>I stayed here on 10/23/2016. The front desk staff was very nice but the motel is older &amp; their was dust behind night stands &amp; cleaning people need to do a better job cleaning up. I would probably not recommend this motel until they clean it up. There was cob webs coming out of vents in hall way next to elevators. The price was good &amp; they had plenty of well lighted parking. More</t>
   </si>
   <si>
-    <t>Tsimoneaux2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r423926047-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -405,9 +581,6 @@
     <t>We arrived very late at night without reservations. The guy behind the desk had us a room and checked us in super quick. We were exhausted and just wanted a place to sleep. I was worried the room would be hot because we had bad experiences with that before. Thank goodness the room was nice and cold! The beds were very comfortable. And the room was very clean! The only negative is that the hotel is close to the interstate so there is some noise. The free breakfast was good and we checked out very quickly. I would recommend this hotel to family and friends. More</t>
   </si>
   <si>
-    <t>c b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r419986672-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -423,9 +596,6 @@
     <t>We loved our stay the the whirlpool suite. The room was huge and included a wet bar, dining area, couch, chair, desk, TV, and spa tub. The king bed was tucked away in a separate bedroom with another TV. The room had a private balcony with a table and chairs. Everything was spotless, the staff was friendly and helpful.</t>
   </si>
   <si>
-    <t>jennc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r393378383-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -453,9 +623,6 @@
     <t>Stayed as a quest of my sister and her friend (friend made reservation). I am a platinum member. So I've stayed in a few IHG's. This was the worst. Looks old, dirty and run down. A/C noisy and left the room, carpet and bed damp. The sofas in the lobby look shabby and dirty. The reception area is small, crowded and dreary looking. On our comings and goings front desk does not acknowledge anyone that I can see. I'm writing this on my first evening, so I can't yet comment on breakfast. But I'm not expecting for it to change my opinion or review. More</t>
   </si>
   <si>
-    <t>littlejnc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r387408362-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -483,9 +650,6 @@
     <t>Not bad for the price. Location and price were key factors in choosing this hotel. Not the best I've stayed in, but not so bad I wouldn't return.  3rd floor hallways had a definite cigarette and musty smell, but the room did not. Staff was friendly and helpful, room was clean and quiet, breakfast was nice and coffee was good. More</t>
   </si>
   <si>
-    <t>Ethan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r375205417-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -534,9 +698,6 @@
     <t>1. I was misinformed about the room. 2. The sleeper sofa was dirty. 3. The sleeper sofa was broken4. The bathroom door would not close. 5. Management said they would get us a room 1st thing in the morning  (7/8) O'clock didn't get the room until afternoon.More</t>
   </si>
   <si>
-    <t>Ingmar53</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r348613307-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -564,9 +725,6 @@
     <t>This was the second stop on our cross-country move to California, and we mostly stayed at mid-level hotels just off the interstate during the drive. We initially tried the Hampton Inn nearby, which had no vacancies, and we got the last room available here--actually a king suite.  Service was fine, although the single elevator often saw quite a crowd waiting for it during our one-night stay. Had a bunch of kids not been monopolizing the indoor pool just off the lobby, we might have tried it. The bed was comfortable, but the sad sofa that made this a "suite" was badly worn and so sagging in the middle that we couldn't comfortably sit there to watch TV. The bathroom, too, is due for a renovation, and with the sink outside the bathroom, it is awfully small to comfortably use the toilet or take a bath. The bath was also missing shampoo, with double hand-lotion instead, which was actually a nuisance for us. Being adjacent to the interstate, there was also lots of outside traffic noise wafting into the room. Free breakfast the next morning was fine, and better than what we experienced at other stops on our westward drive.More</t>
   </si>
   <si>
-    <t>Arnell H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r330822359-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -594,7 +752,136 @@
     <t>Good location off 635 highway. Not far from breakfast food sites. Housekeeping poor. Room was not cleaned until after 3 pm.  Coffee maker not cleaned out first night. Above average breakfast. Outdoor free parking. 4th floor room. Indoor pool available. Small lobby area. But it was very convenient for our purposes.More</t>
   </si>
   <si>
-    <t>Tina P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r324716391-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>324716391</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>4 nights sick in bed but very comfortable</t>
+  </si>
+  <si>
+    <t>I arrived in mesquite, TX and became extremely ill Thursday night. I was in bed until Sunday night but even though I was uncomfortable due to being sick, the bed sure felt good.  It also did its job in getting me well for my trip home. The staff was great too and made sure not to disturb me too much. Great job in service and cleanliness. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>I arrived in mesquite, TX and became extremely ill Thursday night. I was in bed until Sunday night but even though I was uncomfortable due to being sick, the bed sure felt good.  It also did its job in getting me well for my trip home. The staff was great too and made sure not to disturb me too much. Great job in service and cleanliness. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r322640174-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>322640174</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>THIEVES</t>
+  </si>
+  <si>
+    <t>Somehow my property disappeared and their response was that they aren't responsible for "LOST" property. No! It was stolen because if it wasn't it would be in my possession. Don't and Won't recommend!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Somehow my property disappeared and their response was that they aren't responsible for "LOST" property. No! It was stolen because if it wasn't it would be in my possession. Don't and Won't recommend!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r316545950-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>316545950</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Skip this place</t>
+  </si>
+  <si>
+    <t>Holiday inn express is supposed to be the new fast clean brand for this hotel chain. This place was one in disguise. It is old buildIng. The only elevator there broke down, lucky for me they fixed it in a couple of hours, I was on the 5 th floor so I only walked down once. I needed a quick stop so I didn't check tripadvisor, mistake. To top this my car got broken into, they broke the window. You've been warned. MoreShow less</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Holiday inn express is supposed to be the new fast clean brand for this hotel chain. This place was one in disguise. It is old buildIng. The only elevator there broke down, lucky for me they fixed it in a couple of hours, I was on the 5 th floor so I only walked down once. I needed a quick stop so I didn't check tripadvisor, mistake. To top this my car got broken into, they broke the window. You've been warned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r279150378-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>279150378</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Past Its Prime and Worn Out</t>
+  </si>
+  <si>
+    <t>Whereas this place used to be nice it has faded quite a bit and is no longer up to HIE standards. Walls are dinged up, carpets worn and stained, room desk looks like Bertha the elephant sat on it, room keys didn't work right, yada yada. Yes it's less than the Hampton up the road but now I see why. I'd pass on the HIE and try the Hampton which I've stayed at many times and has always been quite good. :(MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Whereas this place used to be nice it has faded quite a bit and is no longer up to HIE standards. Walls are dinged up, carpets worn and stained, room desk looks like Bertha the elephant sat on it, room keys didn't work right, yada yada. Yes it's less than the Hampton up the road but now I see why. I'd pass on the HIE and try the Hampton which I've stayed at many times and has always been quite good. :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r278098741-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>278098741</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>NOT Holiday Inn standards.  More like Motel 6</t>
+  </si>
+  <si>
+    <t>Room was nasty.  Bed not comfortable. Writing on wall that states Killroy was here '89.... Really have they not painted since 1989? Husband woke up to a really sore back from the sink hole in the bed. Stains on the floor under sink in the bathroom. Broken toilet paper holder. Mold (hope that is all it was) on the wall in bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Room was nasty.  Bed not comfortable. Writing on wall that states Killroy was here '89.... Really have they not painted since 1989? Husband woke up to a really sore back from the sink hole in the bed. Stains on the floor under sink in the bathroom. Broken toilet paper holder. Mold (hope that is all it was) on the wall in bathroom.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r274315580-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -621,9 +908,6 @@
     <t>Yuck!!!!!! Yuck!!!!! Yuck!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!SmellsDrains were clogged. And smells really bad.   Felt dirty.     We would not stay there again. The pool is closed.More</t>
   </si>
   <si>
-    <t>rbjpk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r266463733-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -651,9 +935,6 @@
     <t>Clean rooms, good breakfast, but noisy location on I20. No pets at this location. A bit overpriced for the area. Difficult access off the highway. Busy night with a lot of traffic because of a youth sporting competition in area.More</t>
   </si>
   <si>
-    <t>victorian5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r266149090-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -669,9 +950,6 @@
     <t>Stayed on 3rd floor, could hear everything from the floor above, very noisy.  Only consider staying here if you can be on the top floor.  Bed is OK but have had better.  Double sheeting is nice to have.  Breakfast is OK but once again nothing great.Only plastic glasses, not great for a glass of wine.  The coffee is terrible, colored water only.  All together not great value even at 75 on Expedia.Will not stay at Holiday inn express again as it is far too noisy and uncomfortable.</t>
   </si>
   <si>
-    <t>Jen R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r264908108-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -690,9 +968,6 @@
     <t>This isn't a pretty place, or a pretty location, but it's convenient.  The lobby is an old-style with a narrow, outdated lobby.  Since we were only there for one quick overnight, it was adequate for our needs....and since it was the HIE in the area that had Rewards nights at 10,000 points, I didn't expect it to be the best.  I will say that the lady working the front desk, Jennifer, was VERY friendly and helpful.  She upgraded our room, so that we had a pull out sofa bed, which made our stay much easier.  There were no carts available in the lobby, so she had another staff member help us locate one on another floor.More</t>
   </si>
   <si>
-    <t>J Man T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r260098213-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -711,9 +986,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded April 2, 2015</t>
   </si>
   <si>
@@ -723,9 +995,6 @@
     <t>The rooms were nice and clean enough, however staying on the 5th floor we did notice some highway noise, almost as if the window is not shut. The hot water ran out several times but this was during a paintball tournament as everyone was coming back for that. If you are a light sleeper this hotel may not be for you.More</t>
   </si>
   <si>
-    <t>derell4567</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r241662349-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1022,6 @@
     <t>This is the worst holiday Inn express I have either seen in my life I will never come here agian the rooms suck I'm serious, the bed is like sleeping on brick it smells it's nasty not enough luggage carriers staff are okay elevator is small floors are Un even More</t>
   </si>
   <si>
-    <t>kscott14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r240596183-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -774,9 +1040,6 @@
     <t>The room was small and there were ants everywhere which then got into our suitcase when i initailly reserved the room i told them we would need a late check out and was told it was noted that we would be there until  3pm when we checked in there was no note on the account so we told the desk clerk to please add it she said she would the next morning at 11am i attempted to get into the room and was locked out when i talked to the new clerk she said it wasnt on the account and we could only stay until 1pm because she wouldn't have any housekeepers after 2pm so we were very upset with the lack of communication and the poor customer service we will never go there again!More</t>
   </si>
   <si>
-    <t>TheHalmstad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r240465108-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -798,9 +1061,6 @@
     <t>the furniture was damaged but servicable. The internet was sub standard, very very slow.  other than that, it was pretty good. in the time i was here two vehicles got broken into. including on or our trucks. (toolbox)  I have stayed in a lot worse places but have stayed in way better Holiday inn expressesMore</t>
   </si>
   <si>
-    <t>lanileia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r233195284-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -825,9 +1085,6 @@
     <t>I normally stay at holiday inns when I travel however this one hotel was absolutely disgusting. The shower curtains were stained the bedsheets did not look like they had been cleaned. I told my daughter not to take off her shoes because the floors had stains and we're just nasty. I understand the hotel may be old but the rooms could at least be cleaned better. I did forget something at this hotel which was my fault but I called and was told I'd get a call from the manager and never got a call. I will never be staying at this location again.More</t>
   </si>
   <si>
-    <t>PvilleTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r232465821-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -852,7 +1109,358 @@
     <t>Stayed for one night while kids showing poultry at the State Fair of Texas. Was only about 15 minutes from fairgrounds so that was a plus.   The room was clean and the TV was great. It had plenty if channels. The elevator is slow and the decor a little dated. The staff was very friendly.  Several places close by to eat. The road noise from the freeway was not too bad. Recommend the hotel if in the area.More</t>
   </si>
   <si>
-    <t>safetyman79</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r229244728-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>229244728</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Quiet hotel - not a casino</t>
+  </si>
+  <si>
+    <t>We wanted somewhere quiet out of Vegas but not too far away as we had just arrived from England. Mesquite and the Holiday Inn Express fitted the bill. The bed was comfy and everywhere was very clean. Pool area looked nice but we didn't use it. Breakfast was normal offering which was fine although disposable plates and cutlery. The hotel is built away from the rest of the town. It's next door to a Walmart (although at 111 degrees F it was a struggle to walk the short distance).</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r228720706-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>228720706</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Reasonable price but...</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and will NOT be staying at this hotel again, just might spend the few extra dollars at the Hampton. We arrived after midnight and the gentleman working the desk was rather rude, but he was able to get us a room rather quickly.   When we went to our room, it was hot, we had to find the light switch to the bathroom, due to the entrance light being burned out!!  We slept the best we could with the hotel having really thin walls and windows as well as super stiff sheets which did not help us sleep comfortably.  The noise of outside traffic kept us awake, as well as pounding on the walls from the small kids next door.  If you stay on the 4th floor be careful of the vending machines as all the sodas are ALL expired!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and will NOT be staying at this hotel again, just might spend the few extra dollars at the Hampton. We arrived after midnight and the gentleman working the desk was rather rude, but he was able to get us a room rather quickly.   When we went to our room, it was hot, we had to find the light switch to the bathroom, due to the entrance light being burned out!!  We slept the best we could with the hotel having really thin walls and windows as well as super stiff sheets which did not help us sleep comfortably.  The noise of outside traffic kept us awake, as well as pounding on the walls from the small kids next door.  If you stay on the 4th floor be careful of the vending machines as all the sodas are ALL expired!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r218090431-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>218090431</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Reasonable price</t>
+  </si>
+  <si>
+    <t>We have been traveling for several days and chose this Holiday Inn due to location and cost. It was ok. It was obvious this hotel gets a lot of use. Nothing was horrible is was just ok. If you are traveling thru for a day or two, maybe. Breakfast was a plus with plenty of options which out weighed the mold in the coffee pot in the room. Overall the room was clean and semi-quiet. They do permit smoking in areas of the hotel so...... yes you can smell cigarettes..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>We have been traveling for several days and chose this Holiday Inn due to location and cost. It was ok. It was obvious this hotel gets a lot of use. Nothing was horrible is was just ok. If you are traveling thru for a day or two, maybe. Breakfast was a plus with plenty of options which out weighed the mold in the coffee pot in the room. Overall the room was clean and semi-quiet. They do permit smoking in areas of the hotel so...... yes you can smell cigarettes..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r213201039-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>213201039</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Affordable and it includes a breakfast!</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay at this hotel. The receptionist was friendly. Room was clean. Slept comfortably. Woke up refreshed and hungry. Breakfast was delicious. You must try their cinnamon rolls. I had to eat two. Slow elevator but worth it to stay here.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r210272128-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>210272128</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Not A Good HIE</t>
+  </si>
+  <si>
+    <t>I recently started staying at HI Ex. because my stays at a couple had really been exceptional.So when I booked this one, I was basing it on prior experiences.  This one really needs some updates.  The breakfast area area is MUCH smaller that the others at which I have stayed, and the food on the second morning wasn't good at all.  We had to wait to find a seat, and it was out of a lot of the items.  No bacon, OJ dispenser was empty, the "gravy" was watery and yucky.  Only fruit was apples, no pastries, but there were several flies dining with us, and have a great buffet at the overflowing trash containers. Oh, I don't know what happened to their usually good cinnamon rolls, but all there was only bite size very dry rolls.  Yuck again.Hopefully this is an exception to their other properties.  Will be back in the area again next year, but he Hampton Inn right up the road will be our choice. Oh, if you have kiddos, the pool has been out of service for a couple of day.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2014</t>
+  </si>
+  <si>
+    <t>I recently started staying at HI Ex. because my stays at a couple had really been exceptional.So when I booked this one, I was basing it on prior experiences.  This one really needs some updates.  The breakfast area area is MUCH smaller that the others at which I have stayed, and the food on the second morning wasn't good at all.  We had to wait to find a seat, and it was out of a lot of the items.  No bacon, OJ dispenser was empty, the "gravy" was watery and yucky.  Only fruit was apples, no pastries, but there were several flies dining with us, and have a great buffet at the overflowing trash containers. Oh, I don't know what happened to their usually good cinnamon rolls, but all there was only bite size very dry rolls.  Yuck again.Hopefully this is an exception to their other properties.  Will be back in the area again next year, but he Hampton Inn right up the road will be our choice. Oh, if you have kiddos, the pool has been out of service for a couple of day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r209825961-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>209825961</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>great!</t>
+  </si>
+  <si>
+    <t>I arrived late and tired. the guy at the reception was so kind and welcoming that I felt better. he helped with any problem, always with a smile. the room is big, clean, the bed very comfortable. breakfast rich and good. everything was perfect. I'd go back anytime!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r207504564-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>207504564</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Room 319</t>
+  </si>
+  <si>
+    <t>I am not one to complain, but this facility needs improvements. 1. The elevato is extremely small and very slow.2. While using the west stairs, due to the slow elevator, to go from the 3rd floor to outside, my adult daughter was holding hands with my three year old granddaughter and slid on the turn between the 3rd and 2nd floor. These steps are bare nonpainted surfaces that poses a danger to patrons. My daughter fell right on her bottom and the child bumped her head and ear against the concrete wall. I was not a bappy camper. The baby was startled and injured and cried for a while. Since there were no current bruises or broken bones and I was in a hurry to make a graduation, no report was made to thefront desk at that time.3. The beds were uncomfortable and there were dust in the bathroom as if the room hadn't been used or cleaned in quite some time.I often use Holiday Inns as I am a GOLD ELITE IHG Rewards Club member but have never endured such a bad experience at any of the hotels. Iwas totally disappointed with this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded June 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2014</t>
+  </si>
+  <si>
+    <t>I am not one to complain, but this facility needs improvements. 1. The elevato is extremely small and very slow.2. While using the west stairs, due to the slow elevator, to go from the 3rd floor to outside, my adult daughter was holding hands with my three year old granddaughter and slid on the turn between the 3rd and 2nd floor. These steps are bare nonpainted surfaces that poses a danger to patrons. My daughter fell right on her bottom and the child bumped her head and ear against the concrete wall. I was not a bappy camper. The baby was startled and injured and cried for a while. Since there were no current bruises or broken bones and I was in a hurry to make a graduation, no report was made to thefront desk at that time.3. The beds were uncomfortable and there were dust in the bathroom as if the room hadn't been used or cleaned in quite some time.I often use Holiday Inns as I am a GOLD ELITE IHG Rewards Club member but have never endured such a bad experience at any of the hotels. Iwas totally disappointed with this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r206768020-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>206768020</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Hotel was clean, well lit and staff was polite and professional. Breakfast was as expected with eggs, sausage/beacon, fruit, cereal, muffins, juices, etc. Parking was a little marginal with 12+ tree trimming service customers parking very big trucks this week. The water pressure was great but shower temperature was only warm. I asked for hotter water and they complied. FYI- Good water pressure and hot water is a must or I check out. They did good. I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Hotel was clean, well lit and staff was polite and professional. Breakfast was as expected with eggs, sausage/beacon, fruit, cereal, muffins, juices, etc. Parking was a little marginal with 12+ tree trimming service customers parking very big trucks this week. The water pressure was great but shower temperature was only warm. I asked for hotter water and they complied. FYI- Good water pressure and hot water is a must or I check out. They did good. I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r203765257-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>203765257</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting a local college</t>
+  </si>
+  <si>
+    <t>I stayed here as I was taking a fast track class at a nearby college back in March. I am from a very small town and the city life was a bit of a culture shock. The hotel staff was very friendly, the rooms were kept clean, and the beds were comfy. The pool in the hotel even tough I didn't use it, looked a bit on the small side. They did provide breakfast which was a plus because I didn't know the area that well. The tricky part about his hotel was driving to and from it. You had to go on a rotary like road in order to just get on the inner state. The other dislike I had was that every morning around 4 AM I could hear a very loud train go by. I'm sure the train was miles away but it could be well heard in the early morning hours. Overall it wasn't a bad stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded May 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here as I was taking a fast track class at a nearby college back in March. I am from a very small town and the city life was a bit of a culture shock. The hotel staff was very friendly, the rooms were kept clean, and the beds were comfy. The pool in the hotel even tough I didn't use it, looked a bit on the small side. They did provide breakfast which was a plus because I didn't know the area that well. The tricky part about his hotel was driving to and from it. You had to go on a rotary like road in order to just get on the inner state. The other dislike I had was that every morning around 4 AM I could hear a very loud train go by. I'm sure the train was miles away but it could be well heard in the early morning hours. Overall it wasn't a bad stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r202046404-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>202046404</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Not up to HIE standards</t>
+  </si>
+  <si>
+    <t>(Apr 2014, Rm 509)This hotel is not terrible but there were a number of small things that made me feel it wasn't up to HIE standards...- a single elevator for a 5 story property- no printer in the business center (this is a show-stopper for me - I will never return to a hotel that doesn't have a printer)- 4-day expired milk in the breakfast area- a very low, non-adjustable chair at the desk in the room that made it impossible to typeHaving said that, the room was clean and fairly modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>(Apr 2014, Rm 509)This hotel is not terrible but there were a number of small things that made me feel it wasn't up to HIE standards...- a single elevator for a 5 story property- no printer in the business center (this is a show-stopper for me - I will never return to a hotel that doesn't have a printer)- 4-day expired milk in the breakfast area- a very low, non-adjustable chair at the desk in the room that made it impossible to typeHaving said that, the room was clean and fairly modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r187682619-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>187682619</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Property, but needs internet fix</t>
+  </si>
+  <si>
+    <t>This is a very nice property with comfortable rooms, good breakfast, and friendly and helpful service. Only negative was that the internet service was intermittent, and staff didn't seem to understand how to fix it. Would definitely recommend this hotel if the internet connection was more consistent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice property with comfortable rooms, good breakfast, and friendly and helpful service. Only negative was that the internet service was intermittent, and staff didn't seem to understand how to fix it. Would definitely recommend this hotel if the internet connection was more consistent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r187462740-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>187462740</t>
+  </si>
+  <si>
+    <t>12/12/2013</t>
+  </si>
+  <si>
+    <t>Great hotel but housekeeper is lacking</t>
+  </si>
+  <si>
+    <t>Great location off the highway and close to the rodeo grounds as well as food options. Customer service was wonderful and did a fast check in. Room was a suite and a nice size. The downfalls- housekeeping is horrible. The hallways were very dirty just on the walk to the room alone. Then once in the room we cleaned hair out of the shower and rinsed it off the shower curtain. When we got in bed our daughter pointed out on the comforter dried blood. Given the hour and no response hen we called down we just removed it from the bed and slept the few hours before leaving at 4am. It was quiet though and no issue with hearing others. The parking lot was also well lit with an area to let your pet run around if they are good off leash. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location off the highway and close to the rodeo grounds as well as food options. Customer service was wonderful and did a fast check in. Room was a suite and a nice size. The downfalls- housekeeping is horrible. The hallways were very dirty just on the walk to the room alone. Then once in the room we cleaned hair out of the shower and rinsed it off the shower curtain. When we got in bed our daughter pointed out on the comforter dried blood. Given the hour and no response hen we called down we just removed it from the bed and slept the few hours before leaving at 4am. It was quiet though and no issue with hearing others. The parking lot was also well lit with an area to let your pet run around if they are good off leash. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r186856434-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>186856434</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Good location for a good price</t>
+  </si>
+  <si>
+    <t>Stayed here for a concert downtown.  Didn't want to pay downtown hotel prices, and this was a good option for a quick trip into town.  Took us about 15 minutes, even in Texas State Fair traffic.  Hotel was clean and comfortable -- just what you expect from Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a concert downtown.  Didn't want to pay downtown hotel prices, and this was a good option for a quick trip into town.  Took us about 15 minutes, even in Texas State Fair traffic.  Hotel was clean and comfortable -- just what you expect from Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r186252262-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>186252262</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>older property trying to renew</t>
+  </si>
+  <si>
+    <t>This property is in a good location near the Mesquite Rodeo Complex.  The hotel looks like an older property trying to upgrade.  I've never seen a door in front of the elevator door like there used to be a stairway there.  It worked fine but there was only 1 elevator and customers competed with the housekeeping staff..The room we had was a jacuzzi suite.  The jacuzzi was large enough for only one person.  Carpeting was pieced together.  The room was clean and the staff was generally friendly.   Our room was one of the first rooms on our floor to be cleaned.  We were not ready at the time.  They never came back to clean.  Breakfast was normal for this type of property.  Not sure if we would stay here again.  There are other hotels nearby to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded December 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2013</t>
+  </si>
+  <si>
+    <t>This property is in a good location near the Mesquite Rodeo Complex.  The hotel looks like an older property trying to upgrade.  I've never seen a door in front of the elevator door like there used to be a stairway there.  It worked fine but there was only 1 elevator and customers competed with the housekeeping staff..The room we had was a jacuzzi suite.  The jacuzzi was large enough for only one person.  Carpeting was pieced together.  The room was clean and the staff was generally friendly.   Our room was one of the first rooms on our floor to be cleaned.  We were not ready at the time.  They never came back to clean.  Breakfast was normal for this type of property.  Not sure if we would stay here again.  There are other hotels nearby to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r179506411-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>179506411</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>WATCH STOLEN CUSTOMER SERVICE HORRIBLE</t>
+  </si>
+  <si>
+    <t>September 30, 2013
+To whom it My Concern 
+Re: Complaint about the Holiday Inn Express Hotel &amp; Suites Mesquite, 21850 IH-635, 972-288-9900
+On Sunday 29th of September 2013 7:00 am, while getting ready for church I noticed my gold Michael Kors watch was missing. I brought it to the attention of the front desk Manger Oscar Navarro during my check out. I stated that I was unhappy due to a watch being stolen out of my room. Mr. Navarro stated that is impossible who do you think would have taken it; I replied that I assumed it was the house keeper and I expect to be compensated for it. Mr. Navarro became very upset/defensive stating that I had no proof and I cannot accuse anyone without proof. He also stated that he is not responsible for any lost or stolen items because of a form I signed when I checked in.  He then handed me a copy of said form that showed me the disclaimer at the bottom.   Joseph stepped in and read the form, he then turned and told me that there really wasn’t we could do but asked Mr. Navarro what he would do.  Mr. Navarro replied that he would do nothing.  Joseph asked him for a copy of the form that I had signed, Mr. Navarro told us that he would not give us a copy due to the fact that we had booked through a third...September 30, 2013To whom it My Concern Re: Complaint about the Holiday Inn Express Hotel &amp; Suites Mesquite, 21850 IH-635, 972-288-9900On Sunday 29th of September 2013 7:00 am, while getting ready for church I noticed my gold Michael Kors watch was missing. I brought it to the attention of the front desk Manger Oscar Navarro during my check out. I stated that I was unhappy due to a watch being stolen out of my room. Mr. Navarro stated that is impossible who do you think would have taken it; I replied that I assumed it was the house keeper and I expect to be compensated for it. Mr. Navarro became very upset/defensive stating that I had no proof and I cannot accuse anyone without proof. He also stated that he is not responsible for any lost or stolen items because of a form I signed when I checked in.  He then handed me a copy of said form that showed me the disclaimer at the bottom.   Joseph stepped in and read the form, he then turned and told me that there really wasn’t we could do but asked Mr. Navarro what he would do.  Mr. Navarro replied that he would do nothing.  Joseph asked him for a copy of the form that I had signed, Mr. Navarro told us that he would not give us a copy due to the fact that we had booked through a third party.  Joseph expressed to him that legally they could not deny me a copy of something that has my signature on it.  Mr. Navarro then stated that I would have to get a copy from Hotels.com.  Joseph asked if Hotels.com would be able to provide a signed copy of the form.  After further investigation Joseph found that we would not be able to get a copy of the form with my signature but only a proof of receipt.  After Mr. Navarro continued to refuse me a copy of my signature Joseph asked again what Mr. Navarro was going to do about the situation.  Mr. Navarro then stated he would have to check the cameras and see what happened.  Then Joseph stated that even though the cameras could be checked they would not show anything inside of the room.  Mr. Navarro then stated that there are cameras in the hallways and also each doorway.  I then asked him if there are cameras inside the rooms as well.  Mr. Navarro immediately said that we needed to leave or he was going to call the police.  We told him we would be happy to speak with the police and that he could go ahead and call them.  Joseph asked what Mr. Navarro as a manager would be able to do to work with me, the customer once we left.  Mr. Navarro again told him that he would nothing.  Joseph was trying to speak, Mr. Navarro continued to interrupt Joseph and not allow him to speak as a customer.  Joseph asked Mr. Navarro if he would please stop speaking and listen to him.  Mr. Navarro said no, you listen to me.  Joseph stated really, you’re the manager, and Mr. Navarro proceeded to call the Mesquite Police Department.   In his conversation with the police department Mr. Navarro said that he had some people at his front desk that were complaining about “losing” a watch and blaming it on my house keepers.  He then continued on to say that it was an African American male making the complaint.  Even though I was the one who stayed in the room and wanted to make the formal complaint I was not factored into the equation at all.  We waited for about 10 minutes for the police and then had to leave to make it to church on time; I did file a Police Report. Laura Weathers720-434-7784MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>September 30, 2013
+To whom it My Concern 
+Re: Complaint about the Holiday Inn Express Hotel &amp; Suites Mesquite, 21850 IH-635, 972-288-9900
+On Sunday 29th of September 2013 7:00 am, while getting ready for church I noticed my gold Michael Kors watch was missing. I brought it to the attention of the front desk Manger Oscar Navarro during my check out. I stated that I was unhappy due to a watch being stolen out of my room. Mr. Navarro stated that is impossible who do you think would have taken it; I replied that I assumed it was the house keeper and I expect to be compensated for it. Mr. Navarro became very upset/defensive stating that I had no proof and I cannot accuse anyone without proof. He also stated that he is not responsible for any lost or stolen items because of a form I signed when I checked in.  He then handed me a copy of said form that showed me the disclaimer at the bottom.   Joseph stepped in and read the form, he then turned and told me that there really wasn’t we could do but asked Mr. Navarro what he would do.  Mr. Navarro replied that he would do nothing.  Joseph asked him for a copy of the form that I had signed, Mr. Navarro told us that he would not give us a copy due to the fact that we had booked through a third...September 30, 2013To whom it My Concern Re: Complaint about the Holiday Inn Express Hotel &amp; Suites Mesquite, 21850 IH-635, 972-288-9900On Sunday 29th of September 2013 7:00 am, while getting ready for church I noticed my gold Michael Kors watch was missing. I brought it to the attention of the front desk Manger Oscar Navarro during my check out. I stated that I was unhappy due to a watch being stolen out of my room. Mr. Navarro stated that is impossible who do you think would have taken it; I replied that I assumed it was the house keeper and I expect to be compensated for it. Mr. Navarro became very upset/defensive stating that I had no proof and I cannot accuse anyone without proof. He also stated that he is not responsible for any lost or stolen items because of a form I signed when I checked in.  He then handed me a copy of said form that showed me the disclaimer at the bottom.   Joseph stepped in and read the form, he then turned and told me that there really wasn’t we could do but asked Mr. Navarro what he would do.  Mr. Navarro replied that he would do nothing.  Joseph asked him for a copy of the form that I had signed, Mr. Navarro told us that he would not give us a copy due to the fact that we had booked through a third party.  Joseph expressed to him that legally they could not deny me a copy of something that has my signature on it.  Mr. Navarro then stated that I would have to get a copy from Hotels.com.  Joseph asked if Hotels.com would be able to provide a signed copy of the form.  After further investigation Joseph found that we would not be able to get a copy of the form with my signature but only a proof of receipt.  After Mr. Navarro continued to refuse me a copy of my signature Joseph asked again what Mr. Navarro was going to do about the situation.  Mr. Navarro then stated he would have to check the cameras and see what happened.  Then Joseph stated that even though the cameras could be checked they would not show anything inside of the room.  Mr. Navarro then stated that there are cameras in the hallways and also each doorway.  I then asked him if there are cameras inside the rooms as well.  Mr. Navarro immediately said that we needed to leave or he was going to call the police.  We told him we would be happy to speak with the police and that he could go ahead and call them.  Joseph asked what Mr. Navarro as a manager would be able to do to work with me, the customer once we left.  Mr. Navarro again told him that he would nothing.  Joseph was trying to speak, Mr. Navarro continued to interrupt Joseph and not allow him to speak as a customer.  Joseph asked Mr. Navarro if he would please stop speaking and listen to him.  Mr. Navarro said no, you listen to me.  Joseph stated really, you’re the manager, and Mr. Navarro proceeded to call the Mesquite Police Department.   In his conversation with the police department Mr. Navarro said that he had some people at his front desk that were complaining about “losing” a watch and blaming it on my house keepers.  He then continued on to say that it was an African American male making the complaint.  Even though I was the one who stayed in the room and wanted to make the formal complaint I was not factored into the equation at all.  We waited for about 10 minutes for the police and then had to leave to make it to church on time; I did file a Police Report. Laura Weathers720-434-7784More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r174803791-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -882,9 +1490,6 @@
     <t>Hotel was clean and the staff was friendly but the furnishings and linens were old and out of date.  in order to find a nice place to eat you have to get back on 635 and travel to another location...nothing close to the hotel.  Over all not a bad place but I will be checking out other hotels in the area next time I am there.More</t>
   </si>
   <si>
-    <t>Ane07</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r164934198-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -912,9 +1517,6 @@
     <t>We stayed at this hotel recently. We had attended a concert at Fair Park about 10 miles away. It was easy to get to the fairgrounds and back.The room was a King Suite. The room was clean and the bed was comfortable. The bathroom door could not be opened all the way open because it hit the commode. Which was a little inconvenient. After we came back from the concert around midnight we noticed ants all over the cabinets and around the sink in the small kitchen area. There was no battery in the smoke detector which leads me to think the last person in that room was smoking and took the battery out.  We told the gentleman at the desk when we checked out and he said oh ok. Not very concerned about the problems. We will probably not stay at this hotel again. And the sheets on the bed looked and felt a little worn.More</t>
   </si>
   <si>
-    <t>Laura B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r163927494-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -939,9 +1541,6 @@
     <t>We stayed at the Holiday Inn Express on 6/12/13. We were tired and the wind was blowing and it was very hot as we arrived. They had a very nice person at the front desk, which made the check in nice. I had requested extra pillows on the computer and they were there for me. The room was clean, the bedding was nice and comfortable. They have the extra plug on the base of the lamp for charging my phone,nice. The breakfast was good, sometimes you never can tell what your eating. We will most certainly stay again.More</t>
   </si>
   <si>
-    <t>Wdude99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r161062233-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -966,9 +1565,6 @@
     <t>This hotel is located right off of Highway 635 , yet the rooms were surprisingly quiet. We did not hear any highway noise ! Pros: clean, really comfortable beds , microwave and mini fridge in room, free continental breakfast , friendly staff, large parking lot ( was able to park truck with trailer and boat) , close to several fast food options, and the mesquite rodeo arena.Cons: we booked through Expedia for $99 and when we arrived the front desk agent suggested we go directly through the hotel next time because the current rate was actually only $79 . Too bad the deal was non refundable : ( .My only other complaint is that the exhaust fan in the bathroom didn't seem to be working so moisture built up a bit in the bathroom.  We would definitely stay again!More</t>
   </si>
   <si>
-    <t>Cheri H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r161025323-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -990,9 +1586,6 @@
     <t>When I checked into this Hotel for my business trip, I thought it was a convenient location and a good value.  First I noticed the pillows on the bed were old and lumpy.  The phone in next to my bed did not work.  The water would not come out through the shower head only the faucet.  My television had poor reception but the final blow was my second night, the small kitchen area was covered in thousands of little tiny bugs, I was horrified.  I contacted the night manager, he said would you like me to send up the maintenance man?  I said I want another room.  The maintenance man show up with another key for a different room and beginning squashing the bugs with his fingers!!!  I changed rooms, in the morning I was shocked that the night manager never reported the bug problem to the day manager.  They were about to rent out the "bug room" to another poor person.  Stay away from this Hotel, it is not a "value" at any price.More</t>
   </si>
   <si>
-    <t>EnjoyTravelAlways</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r157497268-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1613,6 @@
     <t>I booked a room here mostly because I would be on the east side of the area and be able to get an early start with less traffic.  I had a very nice upgrade because I am a Platinum member.  Like some rooms I’ve stayed in with a hot tub, the room had an odor to it because of water in the carpet (leaky plumbing not overflow or drips when coming out of the tub).  It wasn’t bad but not a surprise.  The tub itself would not be worth paying extra because the jet action was uneventful.  Still, it was good relaxing in a massive tub!  The housekeeping staff could certainly give more attention to easy fixes.  On the floor there was plastic confetti from someone’s celebration.  An attentive sweeping of the room would have gotten all of the pieces.  The bath was mostly clean but the underside of the lid and seat were not cleaned properly and there were disgusting spots.  I know I should have complained and gotten a new room but discovered the filth on the toilet at 11:30 p.m. on my way to bed exhausted.  The location is nice and the people are nice but the housekeeping staff needs to give absolute attention to cleanliness!More</t>
   </si>
   <si>
-    <t>Melissa C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r151923208-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +1640,6 @@
     <t>The good: no noise from other rooms. Breakfast had every item available and the dining area was clean. Polite staff, speedy check-in. Everything in working order. Decent parking. Close to many restaurants. The bad: This hotel has smoking rooms available. The hallways smelled bad because of that. The pool is very small and shallow - had way too much chlorine. Otherwise the pool area was clean and in good repair. We had a king with hide-away sofa (room 207). The hide-away mattress was filthy. My son (who is normally not observant) immediately asked if someone had died on it. The beds are uber hard. There is a lot of road noise but if you turn the fan on "continuous" it is tolerable. We paid about 104\night. I would be reluctant to pay more than that unless it was totally non-smoking.More</t>
   </si>
   <si>
-    <t>Luv2Travel1902</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r151429537-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1077,9 +1664,6 @@
     <t>My husband and I were truly disappointed in this Holiday Inn Express.  First off let me say that it is too close to freeway and you absolutely do hear the road noise. So if this is something that would bother you please think about it before booking.  Check in was fine.  Could have been a little friendlier but ok.  Got off the very small elevator and the minute the door opened up the whole second floor wreaked of cigarette smell.  I am allergic to cigarette smoke so this didn't help at all.  I believe most or all of the door plaques had No Smoking noted on them also.  We reserved the jacuzzi suite, but we were disappointed in it because we only get some swirling water, no serious bubbles going on like we had expected and paid extra for.  Got into the bed and noticed a small hole in the sheets and then noticed that the top sheet had a hole about the size of a quarter in it.  I have to admit that these things are not the normal for most of the Holiday Inn Express &amp; Suites that we have stayed in.  Oh and the bed was really uncomfortable.  We both woke up with backaches the next morning.  This place could truly use a facelift folks.  Would we stay here again?  No.More</t>
   </si>
   <si>
-    <t>haystrapps</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r149861355-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1691,6 @@
     <t>We stayed here with a group of people on a bus tour.  The room was comfy and breakfast was good.  There is an ambulance station or fire station nearby so you really hear their sirens when they go out.  Restaurants nearby but not next door.More</t>
   </si>
   <si>
-    <t>Barry and Kris H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r142781775-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1128,7 +1709,208 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>kimberlynm62</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r138796470-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>138796470</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Great hotel! Poor service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is at a great location, the rooms are very clean and housekeeping is very friendly. But our breakfast experience was horrible! We stayed two nights an couldn't make either days. If they are going to stop serving breakfast after 8:50 don't state that the breakfast ends at 9:30 and if for whatever reason you run out of breakfast at least empathize with the guest and show some sympathy but the breakfast host was very rude and just said it was over before we could fully walk in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r137425087-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>137425087</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Amazing and good price</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for the circus down the street and I couldn't ask for better for the hotel I stayed at. Great price and the bed was really comfortable. Great service and the breakfast was amazing. OH! And the lady in the front desk saw that I had kids so she baked some fresh cookies and sent it up to the room. FREE OF CHARGE!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r134001683-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>134001683</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Highway Noise too much!</t>
+  </si>
+  <si>
+    <t>Good location for a one night stop. Close to Mesquite Rodeo and Devil's Bowl Speedway.Biggest complaint is the traffic nosie from the highway (Loop 635). Very noisy. Room was comfortable, but the bathroom was moldy and the shower didn't work properly. Those things are easily fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Good location for a one night stop. Close to Mesquite Rodeo and Devil's Bowl Speedway.Biggest complaint is the traffic nosie from the highway (Loop 635). Very noisy. Room was comfortable, but the bathroom was moldy and the shower didn't work properly. Those things are easily fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r131502566-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>131502566</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Quiet, comfortable and friendly</t>
+  </si>
+  <si>
+    <t>My husband and I were working in Mesquite along with a crew of 9 additional people.  We stayed for 9 nights. We all thought the rooms were comfy and quiet.  The rooms were clean when we arrived but we chose not to have maids come in during our stay.  We just got fresh towels every couple of days. We only had minor problems (rooms keys wouldn't work and needed to be re-keyed 3 times during our stay) but they were taken care of quickly and with a friendly attitude.The hotel is not new with everything in "brand new" shape but it wasn't outdated and worn either.  We were told they had nighttime security but someones truck was stolen from the parking lot while we were there. It felt like a safe place in a safe part of town.  For the money, it's a good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My husband and I were working in Mesquite along with a crew of 9 additional people.  We stayed for 9 nights. We all thought the rooms were comfy and quiet.  The rooms were clean when we arrived but we chose not to have maids come in during our stay.  We just got fresh towels every couple of days. We only had minor problems (rooms keys wouldn't work and needed to be re-keyed 3 times during our stay) but they were taken care of quickly and with a friendly attitude.The hotel is not new with everything in "brand new" shape but it wasn't outdated and worn either.  We were told they had nighttime security but someones truck was stolen from the parking lot while we were there. It felt like a safe place in a safe part of town.  For the money, it's a good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r124617439-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>124617439</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>Maybe too close to freeway?</t>
+  </si>
+  <si>
+    <t>We stayed here for the State Fair. It was convient to the fair park. The rooms are good and the bed comfortable. We enjoyed our stay, and we would stay again.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r122407756-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>122407756</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>We LOVED it!</t>
+  </si>
+  <si>
+    <t>My husband and I needed a inexpensive place intown to stay for our honeymoon last year. Since it was December we chose this place mostly for the indoor pool. We really enjoyed this hotel. We got the room with the hot tub in it and we loved everything from check in to check out. It was clean, comfy, and the breakfast was AMAZING!  There was so much to choose from, basicallly anything you could think of.  We loved our stay so much that when he came home on leave, We stayed there again to celebrate our 1 year anniversary. We had the same great experiance we expected!!! This time we just got a regular King bed room, it was still pretty big. For the comfort and quality, we felt like we got a REALLY good deal. Would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>My husband and I needed a inexpensive place intown to stay for our honeymoon last year. Since it was December we chose this place mostly for the indoor pool. We really enjoyed this hotel. We got the room with the hot tub in it and we loved everything from check in to check out. It was clean, comfy, and the breakfast was AMAZING!  There was so much to choose from, basicallly anything you could think of.  We loved our stay so much that when he came home on leave, We stayed there again to celebrate our 1 year anniversary. We had the same great experiance we expected!!! This time we just got a regular King bed room, it was still pretty big. For the comfort and quality, we felt like we got a REALLY good deal. Would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r121590692-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>121590692</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Perhaps New Management? No.</t>
+  </si>
+  <si>
+    <t>I was hesitant about staying here after the previous reviews. My fears were shortly alleved. Check in was quick and friendly, as well as all interactions with staff. Although it is obvious this is an older property, it is not ultra anything, just needed care which it did not get. There is an indoor pool area that is sparkling clean and well kept. The rooms are standard fare, furnishings more for a lower budget hotel, but all in working condition. Any requests I had, (fax, laundry,etc.) were met with a smile. I never encountered a rude staff member during a 2 week stay. This is a comfortable place, actually the bed was great, but the pillows....I am used to the selection of pillows HEI offers, but receivecd well worn and lumpy,flat,over used blobs in pillow cases. This is the only negative I have about this property, but I did not bring it to managements attention, so I do not know if replacements are available. I would stay here again. Nothing fancy or new, just a decent nights sleep with a feeling of security. The standard HEI breakfast, including the cinnamon rolls, bacon, eggs, sausage, etc., all hot and freshly prepared. Can't ask for much more in this price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was hesitant about staying here after the previous reviews. My fears were shortly alleved. Check in was quick and friendly, as well as all interactions with staff. Although it is obvious this is an older property, it is not ultra anything, just needed care which it did not get. There is an indoor pool area that is sparkling clean and well kept. The rooms are standard fare, furnishings more for a lower budget hotel, but all in working condition. Any requests I had, (fax, laundry,etc.) were met with a smile. I never encountered a rude staff member during a 2 week stay. This is a comfortable place, actually the bed was great, but the pillows....I am used to the selection of pillows HEI offers, but receivecd well worn and lumpy,flat,over used blobs in pillow cases. This is the only negative I have about this property, but I did not bring it to managements attention, so I do not know if replacements are available. I would stay here again. Nothing fancy or new, just a decent nights sleep with a feeling of security. The standard HEI breakfast, including the cinnamon rolls, bacon, eggs, sausage, etc., all hot and freshly prepared. Can't ask for much more in this price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r116430342-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>116430342</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>My daughter and her 2 kids and myself checked in here for the night.  I wanted a suite so the kids could have their own t.v. to watch.  I paid $ 119.00 for the suite.  We paid, went upstairs to the room, and all I could see was 2 queen beds.  Finally, here's a door to what looked like a closet...it was the other part of the suite!  It was AWFUL....Both rooms were so hot that we could not stay in there for long,  We called the front desk and they did sent maintence up.  He replaced a filthy filter on one a/c unit and a 'part' on the other one, but, it didn't help...they put us in another suite and the same problem there.  however, the a/c n the bedroom part finally did get cool, but, the kids ended up watching the t.v. in the bedroom because it was too hot in the other room.  We once again called the front desk and was told maintence would be back in 30 minutes to look at the a/c units again...waited over an hour, and he never showed.  The guy at the front desk had since left, and the woman there now tells us that there is no note about a problem anywhere, and the maintence man would not be back!   Then to the pool! Open 24 hrs...that's great...no towels to be had, hot tub had brown crap (dirt I imagine)...My daughter and her 2 kids and myself checked in here for the night.  I wanted a suite so the kids could have their own t.v. to watch.  I paid $ 119.00 for the suite.  We paid, went upstairs to the room, and all I could see was 2 queen beds.  Finally, here's a door to what looked like a closet...it was the other part of the suite!  It was AWFUL....Both rooms were so hot that we could not stay in there for long,  We called the front desk and they did sent maintence up.  He replaced a filthy filter on one a/c unit and a 'part' on the other one, but, it didn't help...they put us in another suite and the same problem there.  however, the a/c n the bedroom part finally did get cool, but, the kids ended up watching the t.v. in the bedroom because it was too hot in the other room.  We once again called the front desk and was told maintence would be back in 30 minutes to look at the a/c units again...waited over an hour, and he never showed.  The guy at the front desk had since left, and the woman there now tells us that there is no note about a problem anywhere, and the maintence man would not be back!   Then to the pool! Open 24 hrs...that's great...no towels to be had, hot tub had brown crap (dirt I imagine) floating in it.  GROSS!  I paid $119.00 in Austin for a suite and it was wonderful, so, that's what I was expecting here.....I will never go back there if the rooms were free.....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Emmanuel C, General Manager at Holiday Inn Express &amp; Suites Mesquite, responded to this reviewResponded August 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2011</t>
+  </si>
+  <si>
+    <t>My daughter and her 2 kids and myself checked in here for the night.  I wanted a suite so the kids could have their own t.v. to watch.  I paid $ 119.00 for the suite.  We paid, went upstairs to the room, and all I could see was 2 queen beds.  Finally, here's a door to what looked like a closet...it was the other part of the suite!  It was AWFUL....Both rooms were so hot that we could not stay in there for long,  We called the front desk and they did sent maintence up.  He replaced a filthy filter on one a/c unit and a 'part' on the other one, but, it didn't help...they put us in another suite and the same problem there.  however, the a/c n the bedroom part finally did get cool, but, the kids ended up watching the t.v. in the bedroom because it was too hot in the other room.  We once again called the front desk and was told maintence would be back in 30 minutes to look at the a/c units again...waited over an hour, and he never showed.  The guy at the front desk had since left, and the woman there now tells us that there is no note about a problem anywhere, and the maintence man would not be back!   Then to the pool! Open 24 hrs...that's great...no towels to be had, hot tub had brown crap (dirt I imagine)...My daughter and her 2 kids and myself checked in here for the night.  I wanted a suite so the kids could have their own t.v. to watch.  I paid $ 119.00 for the suite.  We paid, went upstairs to the room, and all I could see was 2 queen beds.  Finally, here's a door to what looked like a closet...it was the other part of the suite!  It was AWFUL....Both rooms were so hot that we could not stay in there for long,  We called the front desk and they did sent maintence up.  He replaced a filthy filter on one a/c unit and a 'part' on the other one, but, it didn't help...they put us in another suite and the same problem there.  however, the a/c n the bedroom part finally did get cool, but, the kids ended up watching the t.v. in the bedroom because it was too hot in the other room.  We once again called the front desk and was told maintence would be back in 30 minutes to look at the a/c units again...waited over an hour, and he never showed.  The guy at the front desk had since left, and the woman there now tells us that there is no note about a problem anywhere, and the maintence man would not be back!   Then to the pool! Open 24 hrs...that's great...no towels to be had, hot tub had brown crap (dirt I imagine) floating in it.  GROSS!  I paid $119.00 in Austin for a suite and it was wonderful, so, that's what I was expecting here.....I will never go back there if the rooms were free.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r115320468-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>115320468</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>The worst overflow property ever....</t>
+  </si>
+  <si>
+    <t>If you are booking a conference at the Hampton Inn &amp; Suites avoid booking the Holiday Inn Express for your overflow. Even though they are conveniently located across the street, they have no idea how group travel works and you will never get your contractual obligations out of them. They don't update their guest information so they can't give you an actual pick up report. Better yet, their GM doesn;t know what a pick up report is seems like. Maybe ok for personal travel but I wouldn't recommend it for any groups. Try Fairfield Inn or Courtyard....</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r104360306-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>104360306</t>
+  </si>
+  <si>
+    <t>04/17/2011</t>
+  </si>
+  <si>
+    <t>Customer service is top of the line</t>
+  </si>
+  <si>
+    <t>This HIE is in an easy location on the outskirts of Dallas, and offers free parking, free breakfast and free wireless internet.    It was sold out when I was there, and my guess is that the location and amazing customer service are the reasons.   I was there for a week, and the front desk attendant (Shelia) never forgot my name and was very helpful with my every request.   She has a magnetic personality, and though I had several tough requests, she went above and beyond to meet my every need.    My one suggestion:   Housekeeping could use some training - or some incentive to care a little bit more.  They were ok with the cleanliness of the rooms, but it was obvious they were not highly motivated, and several times I had to go downstairs for coffee and laundry bag.      I'll be back.    Thanks Shelia for a great week!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>This HIE is in an easy location on the outskirts of Dallas, and offers free parking, free breakfast and free wireless internet.    It was sold out when I was there, and my guess is that the location and amazing customer service are the reasons.   I was there for a week, and the front desk attendant (Shelia) never forgot my name and was very helpful with my every request.   She has a magnetic personality, and though I had several tough requests, she went above and beyond to meet my every need.    My one suggestion:   Housekeeping could use some training - or some incentive to care a little bit more.  They were ok with the cleanliness of the rooms, but it was obvious they were not highly motivated, and several times I had to go downstairs for coffee and laundry bag.      I'll be back.    Thanks Shelia for a great week!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r103079088-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1146,12 +1928,6 @@
     <t>I went to look at the rooms for my company.  The rooms were very nice and clean with the mattresses having just been replaced 6 months ago.  It was quiet and looked and smelled clean.</t>
   </si>
   <si>
-    <t>April 2011</t>
-  </si>
-  <si>
-    <t>Mj1563</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r99066690-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1943,6 @@
     <t>This is a filthy nasty motel!!!  Don't come here to rest!!  Loud music all day and kids stomping on the flour above you.. The phone don't work so I have to walk down to the dedt just to complain..</t>
   </si>
   <si>
-    <t>Persnickety_Coots</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r87822065-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1186,9 +1959,6 @@
   </si>
   <si>
     <t>November 2010</t>
-  </si>
-  <si>
-    <t>yankeetexan65</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r78960995-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1218,9 +1988,6 @@
 I've stayed at Holiday Inn Express's for a number of years and have always had a good experience with...I live in the area but needed a 'get away' for the holiday weekend Plus I wanted to use their high speed wireless internet access. The wonderful staff tried to get me connected online after getting me connected to their wireless router. NOTHING worked. I then called the manufacturer of my laptop and they couldn't solve the issue. Finally Saturday morning I walked my laptop up to the front desk and as luck would have it their tech guy was there. He had me up &amp; running in less than 45 seconds. First time I've ever use a laptop, this was a birthday gift from me to me, so I needed help. Found out that my new laptop's security setting was set to high for wireless public access. Once he lowered my security setting I was up and running. Good thing I planned on staying the whole weekend because it took that whole time to restore everything and back everything up on the laptop. Wonderful breakfasts and M-F they have FREE beer, sodas and wine. At the end of Friday I was ready for a nice cold one but didn't. I did snag a couple of soda's though.Everyone at the front desk went over &amp; beyond their duties to help me and not sure some other place would do that. I've stayed at Holiday Inn Express's for a number of years and have always had a good experience with them. Some have more amenities than others &amp; this one had swimming pool w/spa plus laundromat. A bunch of young kids were in the pool running around unsupervised but since I wasn't going to go in swimming I didn't care. The laundry room's equipment had signs on them that they were out of order &amp; a pile of damp towels were left there. Not sure if the hotel staff was even aware of that mess.I would stay there again if I needed to stay in a local motel.Only thing about the bed was that it was a 'standard' king size bed and not a pillow top like most HIExpress has.More</t>
   </si>
   <si>
-    <t>pswinde</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r35451479-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1242,9 +2009,6 @@
     <t>My family and I recently stated at this Hotel for 2 weeks.  We live in Dallas.  Our A/C unit was hit by lightening and we had to leave our home, due to the hot Temperatures in June/July.  We were in need to find something quick and still close by the house.  We checked in and completely enjoyed our 2 week stay.  They have an indoor pool/jacuzzi that my daughter just love... We miss brfst as we had to go to work before bkfst was served.  We did enjoy the MANAGER RECEPITON.  I would recommend this Hotel to anyone.... We didn't have not 1 problem... The staff was EXCELLENT!!!  I was not expecting this from "Holiday Inn".More</t>
   </si>
   <si>
-    <t>chickmusician</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r10261997-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +2030,6 @@
     <t>My family wanted to visit the Texas State Fair in nearby Dallas so we booked what we thought (and were led to believe on the telephone) was a two bedroom suite.  Online it showed a good rate, something that wasn't too expensive but seemed pricey enough that the suite would be nice.  When we arrived and got up to our suite it was a standard room with two double beds.  I called down to the front desk only to be told it was a suite and to look for a door on my left, there was a door but it seemed like one of those doors that connects rooms when you request that.  When I opened it I found a tiny (and I mean tiny) cramped room that couldn't even fit the loveseat, chair, coffee table and side table stuffed in it comfortably.  It was so awkward we had to take the coffee table out of the room completely!  It wasn't a two bedroom suite, it was a two ROOM suite.  Totally not worth what I paid.  The bedroom itself was average but do not be fooled into booking a suite.  The breakfast was a little sad too.  As far as an average hotel goes this one is fine, but don't expect anything over average.More</t>
   </si>
   <si>
-    <t>ccdiamondqueen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r7348095-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1300,9 +2061,6 @@
   </si>
   <si>
     <t>The worst experience at an Express Hotel. Pool area was filthy with scum around both spa and pool. We took photos. Too much clorine in spa ruined swimsuit! We were unable to enjoy the heated pool due to 10 children under the age of 10 using the hotel for a slumber party. We spoke to one parent watching children and management on duty. Management did nothing to help. Was awakened at 1:30 in the morning by individual going from door to door knocking on doors. Called desk as we were scared to go to door. I was refunded the room costs, but had to contact the Holiday Inn main phone, hotel did nothing without push from corporate. Will not ever use them again.More</t>
-  </si>
-  <si>
-    <t>KIRAN J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d223646-r1343933-Holiday_Inn_Express_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1837,47 +2595,43 @@
       <c r="A2" t="n">
         <v>44278</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1888,61 +2642,53 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44278</v>
       </c>
-      <c r="B3" t="n">
-        <v>3385</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1954,125 +2700,119 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44278</v>
       </c>
-      <c r="B4" t="n">
-        <v>156018</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s">
-        <v>56</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44278</v>
       </c>
-      <c r="B5" t="n">
-        <v>156019</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2084,200 +2824,182 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44278</v>
       </c>
-      <c r="B6" t="n">
-        <v>156020</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44278</v>
       </c>
-      <c r="B7" t="n">
-        <v>8101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44278</v>
       </c>
-      <c r="B8" t="n">
-        <v>10441</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2289,125 +3011,121 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44278</v>
       </c>
-      <c r="B9" t="n">
-        <v>26615</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44278</v>
       </c>
-      <c r="B10" t="n">
-        <v>156021</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2418,57 +3136,57 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44278</v>
       </c>
-      <c r="B11" t="n">
-        <v>156022</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2480,60 +3198,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44278</v>
       </c>
-      <c r="B12" t="n">
-        <v>156023</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2545,84 +3259,74 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44278</v>
       </c>
-      <c r="B13" t="n">
-        <v>99703</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2635,173 +3339,169 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44278</v>
       </c>
-      <c r="B15" t="n">
-        <v>115906</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
       </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44278</v>
       </c>
-      <c r="B16" t="n">
-        <v>156024</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2813,57 +3513,57 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44278</v>
       </c>
-      <c r="B17" t="n">
-        <v>19801</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2874,131 +3574,113 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44278</v>
       </c>
-      <c r="B18" t="n">
-        <v>156025</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>208</v>
-      </c>
-      <c r="X18" t="s">
-        <v>209</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44278</v>
       </c>
-      <c r="B19" t="n">
-        <v>156026</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3009,197 +3691,185 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44278</v>
       </c>
-      <c r="B20" t="n">
-        <v>52474</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
         <v>208</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>209</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44278</v>
       </c>
-      <c r="B21" t="n">
-        <v>156027</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44278</v>
       </c>
-      <c r="B22" t="n">
-        <v>156028</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3211,270 +3881,246 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44278</v>
       </c>
-      <c r="B23" t="n">
-        <v>156029</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
       <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44278</v>
       </c>
-      <c r="B24" t="n">
-        <v>156030</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
         <v>243</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44278</v>
       </c>
-      <c r="B25" t="n">
-        <v>156031</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44278</v>
       </c>
-      <c r="B26" t="n">
-        <v>156032</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3485,812 +4131,688 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>44278</v>
       </c>
-      <c r="B27" t="n">
-        <v>156033</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>44278</v>
       </c>
-      <c r="B28" t="n">
-        <v>156034</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="X28" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>44278</v>
       </c>
-      <c r="B29" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C29" t="s">
-        <v>298</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>44278</v>
       </c>
-      <c r="B30" t="n">
-        <v>156035</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="X30" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>44278</v>
       </c>
-      <c r="B31" t="n">
-        <v>22080</v>
-      </c>
-      <c r="C31" t="s">
-        <v>316</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="X31" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>44278</v>
       </c>
-      <c r="B32" t="n">
-        <v>20272</v>
-      </c>
-      <c r="C32" t="s">
-        <v>324</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>331</v>
-      </c>
-      <c r="X32" t="s">
-        <v>332</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>44278</v>
       </c>
-      <c r="B33" t="n">
-        <v>15342</v>
-      </c>
-      <c r="C33" t="s">
-        <v>334</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>44278</v>
       </c>
-      <c r="B34" t="n">
-        <v>156036</v>
-      </c>
-      <c r="C34" t="s">
-        <v>344</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>44278</v>
       </c>
-      <c r="B35" t="n">
-        <v>156037</v>
-      </c>
-      <c r="C35" t="s">
-        <v>353</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>44278</v>
       </c>
-      <c r="B36" t="n">
-        <v>156038</v>
-      </c>
-      <c r="C36" t="s">
-        <v>363</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>369</v>
-      </c>
-      <c r="O36" t="s">
-        <v>64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
       <c r="Y36" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>44278</v>
       </c>
-      <c r="B37" t="n">
-        <v>156039</v>
-      </c>
-      <c r="C37" t="s">
-        <v>370</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4299,51 +4821,51 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>345</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
       <c r="Y37" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>44278</v>
       </c>
-      <c r="B38" t="n">
-        <v>156040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>377</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
@@ -4354,295 +4876,259 @@
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
       <c r="Y38" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>44278</v>
       </c>
-      <c r="B39" t="n">
-        <v>156041</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>389</v>
-      </c>
-      <c r="O39" t="s">
-        <v>64</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
       <c r="Y39" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>44278</v>
       </c>
-      <c r="B40" t="n">
-        <v>156042</v>
-      </c>
-      <c r="C40" t="s">
-        <v>390</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s">
-        <v>105</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>44278</v>
       </c>
-      <c r="B41" t="n">
-        <v>156043</v>
-      </c>
-      <c r="C41" t="s">
-        <v>398</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>64</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
       <c r="Y41" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>44278</v>
       </c>
-      <c r="B42" t="n">
-        <v>156044</v>
-      </c>
-      <c r="C42" t="s">
-        <v>406</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>3</v>
@@ -4650,65 +5136,69 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>384</v>
+      </c>
+      <c r="X42" t="s">
+        <v>385</v>
+      </c>
       <c r="Y42" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>44278</v>
       </c>
-      <c r="B43" t="n">
-        <v>156045</v>
-      </c>
-      <c r="C43" t="s">
-        <v>414</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>392</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4720,186 +5210,2738 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>44278</v>
       </c>
-      <c r="B44" t="n">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>398</v>
+      </c>
+      <c r="X44" t="s">
+        <v>399</v>
+      </c>
       <c r="Y44" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44278</v>
       </c>
-      <c r="B45" t="n">
-        <v>156046</v>
-      </c>
-      <c r="C45" t="s">
-        <v>426</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s"/>
       <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44278</v>
       </c>
-      <c r="B46" t="n">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="J46" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="L46" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>411</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>412</v>
+      </c>
+      <c r="X46" t="s">
+        <v>413</v>
+      </c>
       <c r="Y46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>415</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>416</v>
+      </c>
+      <c r="J47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K47" t="s">
+        <v>418</v>
+      </c>
+      <c r="L47" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>411</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>420</v>
+      </c>
+      <c r="X47" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>429</v>
+      </c>
+      <c r="X48" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="L49" t="s">
         <v>436</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>437</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>438</v>
+      </c>
+      <c r="X49" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>447</v>
+      </c>
+      <c r="X50" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>452</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s">
+        <v>250</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>464</v>
+      </c>
+      <c r="J53" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" t="s">
+        <v>466</v>
+      </c>
+      <c r="L53" t="s">
+        <v>467</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>446</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>468</v>
+      </c>
+      <c r="X53" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>472</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+      <c r="K54" t="s">
+        <v>474</v>
+      </c>
+      <c r="L54" t="s">
+        <v>475</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>476</v>
+      </c>
+      <c r="X54" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>482</v>
+      </c>
+      <c r="L55" t="s">
+        <v>483</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>484</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>485</v>
+      </c>
+      <c r="X55" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>488</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>489</v>
+      </c>
+      <c r="J56" t="s">
+        <v>490</v>
+      </c>
+      <c r="K56" t="s">
+        <v>491</v>
+      </c>
+      <c r="L56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>493</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>494</v>
+      </c>
+      <c r="X56" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s">
+        <v>500</v>
+      </c>
+      <c r="L57" t="s">
+        <v>501</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>502</v>
+      </c>
+      <c r="X57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>505</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>506</v>
+      </c>
+      <c r="J58" t="s">
+        <v>507</v>
+      </c>
+      <c r="K58" t="s">
+        <v>508</v>
+      </c>
+      <c r="L58" t="s">
+        <v>509</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>510</v>
+      </c>
+      <c r="X58" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>513</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K59" t="s">
+        <v>516</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>518</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>510</v>
+      </c>
+      <c r="X59" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>520</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>521</v>
+      </c>
+      <c r="J60" t="s">
+        <v>522</v>
+      </c>
+      <c r="K60" t="s">
+        <v>523</v>
+      </c>
+      <c r="L60" t="s">
+        <v>524</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>525</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>526</v>
+      </c>
+      <c r="X60" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>529</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>530</v>
+      </c>
+      <c r="J61" t="s">
+        <v>531</v>
+      </c>
+      <c r="K61" t="s">
+        <v>532</v>
+      </c>
+      <c r="L61" t="s">
+        <v>533</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>534</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>535</v>
+      </c>
+      <c r="X61" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" t="s">
+        <v>542</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>534</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>543</v>
+      </c>
+      <c r="X62" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>546</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>547</v>
+      </c>
+      <c r="J63" t="s">
+        <v>548</v>
+      </c>
+      <c r="K63" t="s">
+        <v>549</v>
+      </c>
+      <c r="L63" t="s">
+        <v>550</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>551</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>552</v>
+      </c>
+      <c r="X63" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>555</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+      <c r="J64" t="s">
+        <v>557</v>
+      </c>
+      <c r="K64" t="s">
+        <v>558</v>
+      </c>
+      <c r="L64" t="s">
+        <v>559</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>560</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>561</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>562</v>
+      </c>
+      <c r="J65" t="s">
+        <v>563</v>
+      </c>
+      <c r="K65" t="s">
+        <v>564</v>
+      </c>
+      <c r="L65" t="s">
+        <v>565</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>566</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>567</v>
+      </c>
+      <c r="J66" t="s">
+        <v>568</v>
+      </c>
+      <c r="K66" t="s">
+        <v>569</v>
+      </c>
+      <c r="L66" t="s">
+        <v>570</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>571</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>572</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>573</v>
+      </c>
+      <c r="J67" t="s">
+        <v>574</v>
+      </c>
+      <c r="K67" t="s">
+        <v>575</v>
+      </c>
+      <c r="L67" t="s">
+        <v>576</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>577</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>578</v>
+      </c>
+      <c r="X67" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>581</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>582</v>
+      </c>
+      <c r="J68" t="s">
+        <v>583</v>
+      </c>
+      <c r="K68" t="s">
+        <v>584</v>
+      </c>
+      <c r="L68" t="s">
+        <v>585</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>586</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>588</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>589</v>
+      </c>
+      <c r="J69" t="s">
+        <v>590</v>
+      </c>
+      <c r="K69" t="s">
+        <v>591</v>
+      </c>
+      <c r="L69" t="s">
+        <v>592</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>593</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>594</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>595</v>
+      </c>
+      <c r="J70" t="s">
+        <v>596</v>
+      </c>
+      <c r="K70" t="s">
+        <v>597</v>
+      </c>
+      <c r="L70" t="s">
+        <v>598</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>599</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>599</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>607</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>608</v>
+      </c>
+      <c r="J72" t="s">
+        <v>609</v>
+      </c>
+      <c r="K72" t="s">
+        <v>610</v>
+      </c>
+      <c r="L72" t="s">
+        <v>611</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>612</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>613</v>
+      </c>
+      <c r="X72" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>621</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>622</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>623</v>
+      </c>
+      <c r="J74" t="s">
+        <v>624</v>
+      </c>
+      <c r="K74" t="s">
+        <v>625</v>
+      </c>
+      <c r="L74" t="s">
+        <v>626</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>627</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>630</v>
+      </c>
+      <c r="J75" t="s">
+        <v>631</v>
+      </c>
+      <c r="K75" t="s">
+        <v>632</v>
+      </c>
+      <c r="L75" t="s">
+        <v>633</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>627</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>635</v>
+      </c>
+      <c r="J76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K76" t="s">
+        <v>637</v>
+      </c>
+      <c r="L76" t="s">
+        <v>638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>639</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>640</v>
+      </c>
+      <c r="J77" t="s">
+        <v>641</v>
+      </c>
+      <c r="K77" t="s">
+        <v>642</v>
+      </c>
+      <c r="L77" t="s">
+        <v>643</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>644</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>645</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>646</v>
+      </c>
+      <c r="J78" t="s">
+        <v>647</v>
+      </c>
+      <c r="K78" t="s">
+        <v>648</v>
+      </c>
+      <c r="L78" t="s">
+        <v>649</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>650</v>
+      </c>
+      <c r="O78" t="s">
+        <v>165</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>652</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>653</v>
+      </c>
+      <c r="J79" t="s">
+        <v>654</v>
+      </c>
+      <c r="K79" t="s">
+        <v>655</v>
+      </c>
+      <c r="L79" t="s">
+        <v>656</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>657</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>659</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>660</v>
+      </c>
+      <c r="J80" t="s">
+        <v>661</v>
+      </c>
+      <c r="K80" t="s">
+        <v>662</v>
+      </c>
+      <c r="L80" t="s">
+        <v>663</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>664</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>666</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>667</v>
+      </c>
+      <c r="J81" t="s">
+        <v>668</v>
+      </c>
+      <c r="K81" t="s">
+        <v>669</v>
+      </c>
+      <c r="L81" t="s">
+        <v>670</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>671</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>672</v>
+      </c>
+      <c r="J82" t="s">
+        <v>673</v>
+      </c>
+      <c r="K82" t="s">
+        <v>674</v>
+      </c>
+      <c r="L82" t="s">
+        <v>675</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>677</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>678</v>
+      </c>
+      <c r="J83" t="s">
+        <v>679</v>
+      </c>
+      <c r="K83" t="s">
+        <v>680</v>
+      </c>
+      <c r="L83" t="s">
+        <v>681</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>682</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>683</v>
+      </c>
+      <c r="J84" t="s">
+        <v>684</v>
+      </c>
+      <c r="K84" t="s">
+        <v>685</v>
+      </c>
+      <c r="L84" t="s">
+        <v>686</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
